--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alekkariniemi/Documents/GitHub/butte-ctl-permit/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2716AD1B-8D6F-994F-82F2-CB69AC4BAA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{193778F9-8568-A84C-9911-04FD7884F32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="17960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1103" uniqueCount="245">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1115" uniqueCount="248">
   <si>
     <t>State</t>
   </si>
@@ -440,6 +440,9 @@
     <t>A0470930</t>
   </si>
   <si>
+    <t>40/5</t>
+  </si>
+  <si>
     <t>COFO - Comm Fiber</t>
   </si>
   <si>
@@ -569,6 +572,9 @@
     <t>A0470910</t>
   </si>
   <si>
+    <t>40/6</t>
+  </si>
+  <si>
     <t xml:space="preserve">20' 5"  </t>
   </si>
   <si>
@@ -729,9 +735,6 @@
     <t>A0470899</t>
   </si>
   <si>
-    <t>40/5</t>
-  </si>
-  <si>
     <t xml:space="preserve">19' 0"  </t>
   </si>
   <si>
@@ -749,6 +752,9 @@
     <t>A0470953</t>
   </si>
   <si>
+    <t>60/1</t>
+  </si>
+  <si>
     <t xml:space="preserve">22' 10"  </t>
   </si>
   <si>
@@ -776,6 +782,9 @@
   </si>
   <si>
     <t>A0470954</t>
+  </si>
+  <si>
+    <t>45/3</t>
   </si>
   <si>
     <t xml:space="preserve">20' 0"  </t>
@@ -1542,13 +1551,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="34" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1558,6 +1583,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1565,34 +1602,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="34" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2422,10 +2431,10 @@
   <dimension ref="A2:AB175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="8" ySplit="16" topLeftCell="O17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="16" topLeftCell="I17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="W13" sqref="W13"/>
+      <selection pane="bottomRight" activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2456,25 +2465,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="I2" s="75" t="s">
+      <c r="I2" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="19"/>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
     </row>
     <row r="3" spans="1:28" ht="15" x14ac:dyDescent="0.15">
-      <c r="I3" s="75" t="s">
+      <c r="I3" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="19"/>
       <c r="O3" s="19"/>
       <c r="P3" s="19"/>
@@ -2492,48 +2501,48 @@
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="I4" s="75" t="s">
+      <c r="I4" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
       <c r="N4" s="19"/>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
     </row>
     <row r="7" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="80"/>
-      <c r="S7" s="80"/>
-      <c r="T7" s="80"/>
-      <c r="U7" s="80"/>
-      <c r="V7" s="80"/>
-      <c r="W7" s="80"/>
-      <c r="X7" s="80"/>
-      <c r="Y7" s="80"/>
-      <c r="Z7" s="80"/>
-      <c r="AA7" s="80"/>
-      <c r="AB7" s="80"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="60"/>
+      <c r="W7" s="60"/>
+      <c r="X7" s="60"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="60"/>
+      <c r="AB7" s="60"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B8" s="25"/>
@@ -2547,8 +2556,8 @@
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -2556,29 +2565,29 @@
       <c r="K9" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L9" s="61" t="s">
+      <c r="L9" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="M9" s="61"/>
-      <c r="Q9" s="64" t="s">
+      <c r="M9" s="54"/>
+      <c r="Q9" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="77"/>
-      <c r="V9" s="77"/>
-      <c r="W9" s="78"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="57"/>
     </row>
     <row r="10" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -2586,13 +2595,13 @@
       <c r="K10" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="Q10" s="64" t="s">
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="Q10" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="R10" s="64"/>
-      <c r="S10" s="64"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
       <c r="T10" s="53" t="s">
         <v>18</v>
       </c>
@@ -2605,13 +2614,13 @@
     </row>
     <row r="11" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -2619,13 +2628,13 @@
       <c r="K11" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="Q11" s="64" t="s">
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="Q11" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="R11" s="64"/>
-      <c r="S11" s="64"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
       <c r="T11" s="53" t="s">
         <v>18</v>
       </c>
@@ -2638,13 +2647,13 @@
     </row>
     <row r="12" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -2652,13 +2661,13 @@
       <c r="K12" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="L12" s="62"/>
-      <c r="M12" s="63"/>
-      <c r="Q12" s="64" t="s">
+      <c r="L12" s="73"/>
+      <c r="M12" s="74"/>
+      <c r="Q12" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="R12" s="64"/>
-      <c r="S12" s="64"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
       <c r="T12" s="53" t="s">
         <v>18</v>
       </c>
@@ -2671,13 +2680,13 @@
     </row>
     <row r="13" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="60"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="80"/>
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
       <c r="I13" s="5"/>
@@ -2685,13 +2694,13 @@
       <c r="K13" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="62"/>
-      <c r="M13" s="63"/>
-      <c r="Q13" s="64" t="s">
+      <c r="L13" s="73"/>
+      <c r="M13" s="74"/>
+      <c r="Q13" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="R13" s="64"/>
-      <c r="S13" s="64"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
       <c r="T13" s="53" t="s">
         <v>18</v>
       </c>
@@ -2704,13 +2713,13 @@
     </row>
     <row r="14" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -2718,8 +2727,8 @@
       <c r="K14" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="62"/>
-      <c r="M14" s="63"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="74"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B15" s="26"/>
@@ -2735,35 +2744,35 @@
     </row>
     <row r="16" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="8"/>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="72"/>
-      <c r="V16" s="72"/>
-      <c r="W16" s="72"/>
-      <c r="X16" s="72"/>
-      <c r="Y16" s="72"/>
-      <c r="Z16" s="72"/>
-      <c r="AA16" s="72"/>
-      <c r="AB16" s="72"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="64"/>
+      <c r="X16" s="64"/>
+      <c r="Y16" s="64"/>
+      <c r="Z16" s="64"/>
+      <c r="AA16" s="64"/>
+      <c r="AB16" s="64"/>
     </row>
     <row r="17" spans="1:28" s="3" customFormat="1" ht="70" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
@@ -2880,15 +2889,15 @@
       <c r="N18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O18" s="12">
-        <v>8</v>
+      <c r="O18" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="P18" s="12"/>
       <c r="Q18" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="R18" s="16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="S18" s="10" t="s">
         <v>100</v>
@@ -2898,22 +2907,22 @@
         <v>39</v>
       </c>
       <c r="V18" s="14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="W18" s="14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="X18" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y18" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Z18" s="14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AA18" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB18" s="10"/>
     </row>
@@ -2926,11 +2935,11 @@
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
@@ -2946,15 +2955,15 @@
       <c r="N19" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O19" s="12">
-        <v>8</v>
+      <c r="O19" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="P19" s="12"/>
       <c r="Q19" s="13" t="s">
         <v>37</v>
       </c>
       <c r="R19" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S19" s="10" t="s">
         <v>100</v>
@@ -2964,22 +2973,22 @@
         <v>39</v>
       </c>
       <c r="V19" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="W19" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="X19" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y19" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Z19" s="14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AA19" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AB19" s="10"/>
     </row>
@@ -2992,11 +3001,11 @@
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
@@ -3012,15 +3021,15 @@
       <c r="N20" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O20" s="10" t="s">
-        <v>148</v>
+      <c r="O20" s="11" t="s">
+        <v>149</v>
       </c>
       <c r="P20" s="10"/>
       <c r="Q20" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="S20" s="10" t="s">
         <v>100</v>
@@ -3030,22 +3039,22 @@
         <v>39</v>
       </c>
       <c r="V20" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="W20" s="14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="X20" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y20" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Z20" s="14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA20" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AB20" s="10"/>
     </row>
@@ -3058,11 +3067,11 @@
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
@@ -3078,15 +3087,15 @@
       <c r="N21" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O21" s="12">
-        <v>8</v>
+      <c r="O21" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="P21" s="12"/>
       <c r="Q21" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="R21" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="S21" s="10" t="s">
         <v>100</v>
@@ -3096,22 +3105,22 @@
         <v>39</v>
       </c>
       <c r="V21" s="14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="W21" s="14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="X21" s="14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y21" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Z21" s="14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AA21" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AB21" s="10"/>
     </row>
@@ -3124,11 +3133,11 @@
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
@@ -3144,15 +3153,15 @@
       <c r="N22" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O22" s="12">
-        <v>6.666666666666667</v>
+      <c r="O22" s="11" t="s">
+        <v>169</v>
       </c>
       <c r="P22" s="12"/>
       <c r="Q22" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="S22" s="10" t="s">
         <v>100</v>
@@ -3162,22 +3171,22 @@
         <v>39</v>
       </c>
       <c r="V22" s="11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="W22" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="X22" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Y22" s="11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Z22" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AA22" s="10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AB22" s="10"/>
     </row>
@@ -3190,11 +3199,11 @@
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
@@ -3209,15 +3218,15 @@
       <c r="N23" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O23" s="12">
-        <v>8</v>
+      <c r="O23" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="P23" s="12"/>
       <c r="Q23" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="R23" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="S23" s="10" t="s">
         <v>100</v>
@@ -3227,22 +3236,22 @@
         <v>39</v>
       </c>
       <c r="V23" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="W23" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="X23" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y23" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Z23" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AA23" s="10" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AB23" s="10"/>
     </row>
@@ -3255,11 +3264,11 @@
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
@@ -3275,15 +3284,15 @@
       <c r="N24" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O24" s="12">
-        <v>10</v>
+      <c r="O24" s="11" t="s">
+        <v>149</v>
       </c>
       <c r="P24" s="12"/>
       <c r="Q24" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="S24" s="10" t="s">
         <v>100</v>
@@ -3293,22 +3302,22 @@
         <v>39</v>
       </c>
       <c r="V24" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="W24" s="11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="X24" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y24" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Z24" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AA24" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AB24" s="10"/>
     </row>
@@ -3321,11 +3330,11 @@
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -3341,15 +3350,15 @@
       <c r="N25" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O25" s="12">
-        <v>8</v>
+      <c r="O25" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="P25" s="12"/>
       <c r="Q25" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="R25" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="S25" s="10" t="s">
         <v>100</v>
@@ -3359,22 +3368,22 @@
         <v>39</v>
       </c>
       <c r="V25" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="W25" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X25" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y25" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Z25" s="11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AA25" s="10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AB25" s="10"/>
     </row>
@@ -3387,11 +3396,11 @@
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -3407,15 +3416,15 @@
       <c r="N26" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O26" s="12">
-        <v>8</v>
+      <c r="O26" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="P26" s="12"/>
       <c r="Q26" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="R26" s="10" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="S26" s="10" t="s">
         <v>100</v>
@@ -3425,22 +3434,22 @@
         <v>39</v>
       </c>
       <c r="V26" s="11" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="W26" s="11" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="X26" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y26" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Z26" s="11" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AA26" s="10" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AB26" s="10"/>
     </row>
@@ -3453,11 +3462,11 @@
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
@@ -3473,15 +3482,15 @@
       <c r="N27" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O27" s="12">
-        <v>8</v>
+      <c r="O27" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="P27" s="12"/>
       <c r="Q27" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="R27" s="10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="S27" s="10" t="s">
         <v>100</v>
@@ -3491,22 +3500,22 @@
         <v>39</v>
       </c>
       <c r="V27" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="W27" s="11" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="X27" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y27" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Z27" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AA27" s="10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AB27" s="10"/>
     </row>
@@ -3519,11 +3528,11 @@
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
@@ -3539,15 +3548,15 @@
       <c r="N28" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O28" s="10" t="s">
-        <v>216</v>
+      <c r="O28" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="P28" s="10"/>
       <c r="Q28" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="S28" s="10" t="s">
         <v>100</v>
@@ -3557,22 +3566,22 @@
         <v>39</v>
       </c>
       <c r="V28" s="11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="W28" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="X28" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y28" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Z28" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AA28" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AB28" s="10"/>
     </row>
@@ -3585,11 +3594,11 @@
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
@@ -3605,15 +3614,15 @@
       <c r="N29" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O29" s="12">
-        <v>60</v>
+      <c r="O29" s="11" t="s">
+        <v>223</v>
       </c>
       <c r="P29" s="12"/>
       <c r="Q29" s="13" t="s">
         <v>37</v>
       </c>
       <c r="R29" s="10" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="S29" s="10" t="s">
         <v>100</v>
@@ -3623,22 +3632,22 @@
         <v>39</v>
       </c>
       <c r="V29" s="11" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="W29" s="11" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="X29" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y29" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Z29" s="11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AA29" s="10" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AB29" s="10"/>
     </row>
@@ -3651,11 +3660,11 @@
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="11" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
@@ -3671,15 +3680,15 @@
       <c r="N30" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O30" s="12">
-        <v>15</v>
+      <c r="O30" s="11" t="s">
+        <v>233</v>
       </c>
       <c r="P30" s="12"/>
       <c r="Q30" s="13" t="s">
         <v>37</v>
       </c>
       <c r="R30" s="10" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="S30" s="10" t="s">
         <v>100</v>
@@ -3689,22 +3698,22 @@
         <v>39</v>
       </c>
       <c r="V30" s="11" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="W30" s="11" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="X30" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y30" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Z30" s="11" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AA30" s="10" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AB30" s="10"/>
     </row>
@@ -3717,11 +3726,11 @@
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="11" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
@@ -3737,15 +3746,15 @@
       <c r="N31" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O31" s="12">
-        <v>10</v>
+      <c r="O31" s="11" t="s">
+        <v>149</v>
       </c>
       <c r="P31" s="12"/>
       <c r="Q31" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="R31" s="10" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="S31" s="10" t="s">
         <v>100</v>
@@ -3755,22 +3764,22 @@
         <v>39</v>
       </c>
       <c r="V31" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="W31" s="11" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="X31" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y31" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Z31" s="11" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AA31" s="10" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AB31" s="10"/>
     </row>
@@ -3791,7 +3800,7 @@
       <c r="L32" s="47"/>
       <c r="M32" s="48"/>
       <c r="N32" s="10"/>
-      <c r="O32" s="12"/>
+      <c r="O32" s="11"/>
       <c r="P32" s="12"/>
       <c r="Q32" s="13"/>
       <c r="R32" s="10"/>
@@ -3808,35 +3817,35 @@
     </row>
     <row r="33" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="66"/>
-      <c r="P33" s="66"/>
-      <c r="Q33" s="66"/>
-      <c r="R33" s="66"/>
-      <c r="S33" s="66"/>
-      <c r="T33" s="66"/>
-      <c r="U33" s="66"/>
-      <c r="V33" s="66"/>
-      <c r="W33" s="66"/>
-      <c r="X33" s="66"/>
-      <c r="Y33" s="66"/>
-      <c r="Z33" s="66"/>
-      <c r="AA33" s="66"/>
-      <c r="AB33" s="66"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="72"/>
+      <c r="P33" s="72"/>
+      <c r="Q33" s="72"/>
+      <c r="R33" s="72"/>
+      <c r="S33" s="72"/>
+      <c r="T33" s="72"/>
+      <c r="U33" s="72"/>
+      <c r="V33" s="72"/>
+      <c r="W33" s="72"/>
+      <c r="X33" s="72"/>
+      <c r="Y33" s="72"/>
+      <c r="Z33" s="72"/>
+      <c r="AA33" s="72"/>
+      <c r="AB33" s="72"/>
     </row>
     <row r="34" spans="1:28" s="3" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
@@ -3900,17 +3909,17 @@
       <c r="S34" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="T34" s="67" t="s">
+      <c r="T34" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="U34" s="67"/>
-      <c r="V34" s="67"/>
-      <c r="W34" s="67"/>
-      <c r="X34" s="67"/>
-      <c r="Y34" s="67"/>
-      <c r="Z34" s="67"/>
-      <c r="AA34" s="67"/>
-      <c r="AB34" s="67"/>
+      <c r="U34" s="75"/>
+      <c r="V34" s="75"/>
+      <c r="W34" s="75"/>
+      <c r="X34" s="75"/>
+      <c r="Y34" s="75"/>
+      <c r="Z34" s="75"/>
+      <c r="AA34" s="75"/>
+      <c r="AB34" s="75"/>
     </row>
     <row r="35" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
@@ -3952,22 +3961,22 @@
       <c r="N35" s="11"/>
       <c r="O35" s="11"/>
       <c r="P35" s="15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q35" s="15"/>
       <c r="R35" s="15"/>
       <c r="S35" s="15"/>
-      <c r="T35" s="55" t="s">
-        <v>136</v>
-      </c>
-      <c r="U35" s="56"/>
-      <c r="V35" s="56"/>
-      <c r="W35" s="56"/>
-      <c r="X35" s="56"/>
-      <c r="Y35" s="56"/>
-      <c r="Z35" s="56"/>
-      <c r="AA35" s="56"/>
-      <c r="AB35" s="57"/>
+      <c r="T35" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="U35" s="68"/>
+      <c r="V35" s="68"/>
+      <c r="W35" s="68"/>
+      <c r="X35" s="68"/>
+      <c r="Y35" s="68"/>
+      <c r="Z35" s="68"/>
+      <c r="AA35" s="68"/>
+      <c r="AB35" s="69"/>
     </row>
     <row r="36" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
@@ -3989,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G36" s="18">
         <f t="shared" si="1"/>
@@ -4007,22 +4016,22 @@
       <c r="N36" s="11"/>
       <c r="O36" s="11"/>
       <c r="P36" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q36" s="15"/>
       <c r="R36" s="15"/>
       <c r="S36" s="15"/>
-      <c r="T36" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="U36" s="56"/>
-      <c r="V36" s="56"/>
-      <c r="W36" s="56"/>
-      <c r="X36" s="56"/>
-      <c r="Y36" s="56"/>
-      <c r="Z36" s="56"/>
-      <c r="AA36" s="56"/>
-      <c r="AB36" s="57"/>
+      <c r="T36" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="U36" s="68"/>
+      <c r="V36" s="68"/>
+      <c r="W36" s="68"/>
+      <c r="X36" s="68"/>
+      <c r="Y36" s="68"/>
+      <c r="Z36" s="68"/>
+      <c r="AA36" s="68"/>
+      <c r="AB36" s="69"/>
     </row>
     <row r="37" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
@@ -4044,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G37" s="18">
         <f t="shared" si="1"/>
@@ -4064,22 +4073,22 @@
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
       <c r="P37" s="15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q37" s="15"/>
       <c r="R37" s="15"/>
       <c r="S37" s="15"/>
-      <c r="T37" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="U37" s="56"/>
-      <c r="V37" s="56"/>
-      <c r="W37" s="56"/>
-      <c r="X37" s="56"/>
-      <c r="Y37" s="56"/>
-      <c r="Z37" s="56"/>
-      <c r="AA37" s="56"/>
-      <c r="AB37" s="57"/>
+      <c r="T37" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="U37" s="68"/>
+      <c r="V37" s="68"/>
+      <c r="W37" s="68"/>
+      <c r="X37" s="68"/>
+      <c r="Y37" s="68"/>
+      <c r="Z37" s="68"/>
+      <c r="AA37" s="68"/>
+      <c r="AB37" s="69"/>
     </row>
     <row r="38" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
@@ -4101,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G38" s="18">
         <f t="shared" si="1"/>
@@ -4121,22 +4130,22 @@
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
       <c r="P38" s="15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q38" s="15"/>
       <c r="R38" s="15"/>
       <c r="S38" s="15"/>
-      <c r="T38" s="55" t="s">
-        <v>165</v>
-      </c>
-      <c r="U38" s="56"/>
-      <c r="V38" s="56"/>
-      <c r="W38" s="56"/>
-      <c r="X38" s="56"/>
-      <c r="Y38" s="56"/>
-      <c r="Z38" s="56"/>
-      <c r="AA38" s="56"/>
-      <c r="AB38" s="57"/>
+      <c r="T38" s="67" t="s">
+        <v>166</v>
+      </c>
+      <c r="U38" s="68"/>
+      <c r="V38" s="68"/>
+      <c r="W38" s="68"/>
+      <c r="X38" s="68"/>
+      <c r="Y38" s="68"/>
+      <c r="Z38" s="68"/>
+      <c r="AA38" s="68"/>
+      <c r="AB38" s="69"/>
     </row>
     <row r="39" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
@@ -4158,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G39" s="18">
         <f t="shared" si="1"/>
@@ -4178,22 +4187,22 @@
       <c r="N39" s="11"/>
       <c r="O39" s="11"/>
       <c r="P39" s="81" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q39" s="15"/>
       <c r="R39" s="15"/>
       <c r="S39" s="15"/>
-      <c r="T39" s="55" t="s">
-        <v>176</v>
-      </c>
-      <c r="U39" s="56"/>
-      <c r="V39" s="56"/>
-      <c r="W39" s="56"/>
-      <c r="X39" s="56"/>
-      <c r="Y39" s="56"/>
-      <c r="Z39" s="56"/>
-      <c r="AA39" s="56"/>
-      <c r="AB39" s="57"/>
+      <c r="T39" s="67" t="s">
+        <v>178</v>
+      </c>
+      <c r="U39" s="68"/>
+      <c r="V39" s="68"/>
+      <c r="W39" s="68"/>
+      <c r="X39" s="68"/>
+      <c r="Y39" s="68"/>
+      <c r="Z39" s="68"/>
+      <c r="AA39" s="68"/>
+      <c r="AB39" s="69"/>
     </row>
     <row r="40" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
@@ -4215,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G40" s="18">
         <f t="shared" si="1"/>
@@ -4235,22 +4244,22 @@
       <c r="N40" s="11"/>
       <c r="O40" s="11"/>
       <c r="P40" s="15" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q40" s="15"/>
       <c r="R40" s="15"/>
       <c r="S40" s="15"/>
-      <c r="T40" s="55" t="s">
-        <v>184</v>
-      </c>
-      <c r="U40" s="56"/>
-      <c r="V40" s="56"/>
-      <c r="W40" s="56"/>
-      <c r="X40" s="56"/>
-      <c r="Y40" s="56"/>
-      <c r="Z40" s="56"/>
-      <c r="AA40" s="56"/>
-      <c r="AB40" s="57"/>
+      <c r="T40" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="U40" s="68"/>
+      <c r="V40" s="68"/>
+      <c r="W40" s="68"/>
+      <c r="X40" s="68"/>
+      <c r="Y40" s="68"/>
+      <c r="Z40" s="68"/>
+      <c r="AA40" s="68"/>
+      <c r="AB40" s="69"/>
     </row>
     <row r="41" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8">
@@ -4272,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G41" s="18">
         <f t="shared" si="1"/>
@@ -4292,22 +4301,22 @@
       <c r="N41" s="11"/>
       <c r="O41" s="11"/>
       <c r="P41" s="15" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q41" s="15"/>
       <c r="R41" s="15"/>
       <c r="S41" s="15"/>
-      <c r="T41" s="55" t="s">
-        <v>190</v>
-      </c>
-      <c r="U41" s="56"/>
-      <c r="V41" s="56"/>
-      <c r="W41" s="56"/>
-      <c r="X41" s="56"/>
-      <c r="Y41" s="56"/>
-      <c r="Z41" s="56"/>
-      <c r="AA41" s="56"/>
-      <c r="AB41" s="57"/>
+      <c r="T41" s="67" t="s">
+        <v>192</v>
+      </c>
+      <c r="U41" s="68"/>
+      <c r="V41" s="68"/>
+      <c r="W41" s="68"/>
+      <c r="X41" s="68"/>
+      <c r="Y41" s="68"/>
+      <c r="Z41" s="68"/>
+      <c r="AA41" s="68"/>
+      <c r="AB41" s="69"/>
     </row>
     <row r="42" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="8">
@@ -4329,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G42" s="18">
         <f t="shared" si="1"/>
@@ -4349,22 +4358,22 @@
       <c r="N42" s="11"/>
       <c r="O42" s="11"/>
       <c r="P42" s="15" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q42" s="15"/>
       <c r="R42" s="15"/>
       <c r="S42" s="15"/>
-      <c r="T42" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="U42" s="56"/>
-      <c r="V42" s="56"/>
-      <c r="W42" s="56"/>
-      <c r="X42" s="56"/>
-      <c r="Y42" s="56"/>
-      <c r="Z42" s="56"/>
-      <c r="AA42" s="56"/>
-      <c r="AB42" s="57"/>
+      <c r="T42" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="U42" s="68"/>
+      <c r="V42" s="68"/>
+      <c r="W42" s="68"/>
+      <c r="X42" s="68"/>
+      <c r="Y42" s="68"/>
+      <c r="Z42" s="68"/>
+      <c r="AA42" s="68"/>
+      <c r="AB42" s="69"/>
     </row>
     <row r="43" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="8">
@@ -4386,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G43" s="18">
         <f t="shared" si="1"/>
@@ -4406,22 +4415,22 @@
       <c r="N43" s="11"/>
       <c r="O43" s="11"/>
       <c r="P43" s="81" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q43" s="15"/>
       <c r="R43" s="15"/>
       <c r="S43" s="15"/>
-      <c r="T43" s="55" t="s">
-        <v>206</v>
-      </c>
-      <c r="U43" s="56"/>
-      <c r="V43" s="56"/>
-      <c r="W43" s="56"/>
-      <c r="X43" s="56"/>
-      <c r="Y43" s="56"/>
-      <c r="Z43" s="56"/>
-      <c r="AA43" s="56"/>
-      <c r="AB43" s="57"/>
+      <c r="T43" s="67" t="s">
+        <v>208</v>
+      </c>
+      <c r="U43" s="68"/>
+      <c r="V43" s="68"/>
+      <c r="W43" s="68"/>
+      <c r="X43" s="68"/>
+      <c r="Y43" s="68"/>
+      <c r="Z43" s="68"/>
+      <c r="AA43" s="68"/>
+      <c r="AB43" s="69"/>
     </row>
     <row r="44" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="8">
@@ -4443,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G44" s="18">
         <f t="shared" si="1"/>
@@ -4463,22 +4472,22 @@
       <c r="N44" s="11"/>
       <c r="O44" s="11"/>
       <c r="P44" s="15" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q44" s="15"/>
       <c r="R44" s="15"/>
       <c r="S44" s="15"/>
-      <c r="T44" s="55" t="s">
-        <v>213</v>
-      </c>
-      <c r="U44" s="56"/>
-      <c r="V44" s="56"/>
-      <c r="W44" s="56"/>
-      <c r="X44" s="56"/>
-      <c r="Y44" s="56"/>
-      <c r="Z44" s="56"/>
-      <c r="AA44" s="56"/>
-      <c r="AB44" s="57"/>
+      <c r="T44" s="67" t="s">
+        <v>215</v>
+      </c>
+      <c r="U44" s="68"/>
+      <c r="V44" s="68"/>
+      <c r="W44" s="68"/>
+      <c r="X44" s="68"/>
+      <c r="Y44" s="68"/>
+      <c r="Z44" s="68"/>
+      <c r="AA44" s="68"/>
+      <c r="AB44" s="69"/>
     </row>
     <row r="45" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="8">
@@ -4500,7 +4509,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G45" s="18">
         <f t="shared" si="1"/>
@@ -4520,22 +4529,22 @@
       <c r="N45" s="11"/>
       <c r="O45" s="11"/>
       <c r="P45" s="15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q45" s="15"/>
       <c r="R45" s="15"/>
       <c r="S45" s="15"/>
-      <c r="T45" s="55" t="s">
-        <v>219</v>
-      </c>
-      <c r="U45" s="56"/>
-      <c r="V45" s="56"/>
-      <c r="W45" s="56"/>
-      <c r="X45" s="56"/>
-      <c r="Y45" s="56"/>
-      <c r="Z45" s="56"/>
-      <c r="AA45" s="56"/>
-      <c r="AB45" s="57"/>
+      <c r="T45" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="U45" s="68"/>
+      <c r="V45" s="68"/>
+      <c r="W45" s="68"/>
+      <c r="X45" s="68"/>
+      <c r="Y45" s="68"/>
+      <c r="Z45" s="68"/>
+      <c r="AA45" s="68"/>
+      <c r="AB45" s="69"/>
     </row>
     <row r="46" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="8">
@@ -4557,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G46" s="18">
         <f t="shared" si="1"/>
@@ -4575,22 +4584,22 @@
       <c r="N46" s="11"/>
       <c r="O46" s="11"/>
       <c r="P46" s="15" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q46" s="15"/>
       <c r="R46" s="15"/>
       <c r="S46" s="15"/>
-      <c r="T46" s="55" t="s">
-        <v>228</v>
-      </c>
-      <c r="U46" s="56"/>
-      <c r="V46" s="56"/>
-      <c r="W46" s="56"/>
-      <c r="X46" s="56"/>
-      <c r="Y46" s="56"/>
-      <c r="Z46" s="56"/>
-      <c r="AA46" s="56"/>
-      <c r="AB46" s="57"/>
+      <c r="T46" s="67" t="s">
+        <v>230</v>
+      </c>
+      <c r="U46" s="68"/>
+      <c r="V46" s="68"/>
+      <c r="W46" s="68"/>
+      <c r="X46" s="68"/>
+      <c r="Y46" s="68"/>
+      <c r="Z46" s="68"/>
+      <c r="AA46" s="68"/>
+      <c r="AB46" s="69"/>
     </row>
     <row r="47" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="8">
@@ -4612,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G47" s="18">
         <f t="shared" si="1"/>
@@ -4630,22 +4639,22 @@
       <c r="N47" s="11"/>
       <c r="O47" s="11"/>
       <c r="P47" s="15" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q47" s="15"/>
       <c r="R47" s="15"/>
       <c r="S47" s="15"/>
-      <c r="T47" s="55" t="s">
-        <v>237</v>
-      </c>
-      <c r="U47" s="56"/>
-      <c r="V47" s="56"/>
-      <c r="W47" s="56"/>
-      <c r="X47" s="56"/>
-      <c r="Y47" s="56"/>
-      <c r="Z47" s="56"/>
-      <c r="AA47" s="56"/>
-      <c r="AB47" s="57"/>
+      <c r="T47" s="67" t="s">
+        <v>240</v>
+      </c>
+      <c r="U47" s="68"/>
+      <c r="V47" s="68"/>
+      <c r="W47" s="68"/>
+      <c r="X47" s="68"/>
+      <c r="Y47" s="68"/>
+      <c r="Z47" s="68"/>
+      <c r="AA47" s="68"/>
+      <c r="AB47" s="69"/>
     </row>
     <row r="48" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="8">
@@ -4667,7 +4676,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G48" s="18">
         <f t="shared" si="1"/>
@@ -4687,22 +4696,22 @@
       <c r="N48" s="11"/>
       <c r="O48" s="11"/>
       <c r="P48" s="81" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q48" s="15"/>
       <c r="R48" s="15"/>
       <c r="S48" s="15"/>
-      <c r="T48" s="55" t="s">
-        <v>244</v>
-      </c>
-      <c r="U48" s="56"/>
-      <c r="V48" s="56"/>
-      <c r="W48" s="56"/>
-      <c r="X48" s="56"/>
-      <c r="Y48" s="56"/>
-      <c r="Z48" s="56"/>
-      <c r="AA48" s="56"/>
-      <c r="AB48" s="57"/>
+      <c r="T48" s="67" t="s">
+        <v>247</v>
+      </c>
+      <c r="U48" s="68"/>
+      <c r="V48" s="68"/>
+      <c r="W48" s="68"/>
+      <c r="X48" s="68"/>
+      <c r="Y48" s="68"/>
+      <c r="Z48" s="68"/>
+      <c r="AA48" s="68"/>
+      <c r="AB48" s="69"/>
     </row>
     <row r="49" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="8">
@@ -4747,15 +4756,15 @@
       <c r="Q49" s="15"/>
       <c r="R49" s="15"/>
       <c r="S49" s="15"/>
-      <c r="T49" s="55"/>
-      <c r="U49" s="56"/>
-      <c r="V49" s="56"/>
-      <c r="W49" s="56"/>
-      <c r="X49" s="56"/>
-      <c r="Y49" s="56"/>
-      <c r="Z49" s="56"/>
-      <c r="AA49" s="56"/>
-      <c r="AB49" s="57"/>
+      <c r="T49" s="67"/>
+      <c r="U49" s="68"/>
+      <c r="V49" s="68"/>
+      <c r="W49" s="68"/>
+      <c r="X49" s="68"/>
+      <c r="Y49" s="68"/>
+      <c r="Z49" s="68"/>
+      <c r="AA49" s="68"/>
+      <c r="AB49" s="69"/>
     </row>
     <row r="50" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
@@ -4765,9 +4774,9 @@
       <c r="Q50" s="4"/>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="P51" s="54"/>
-      <c r="Q51" s="54"/>
-      <c r="R51" s="54"/>
+      <c r="P51" s="70"/>
+      <c r="Q51" s="70"/>
+      <c r="R51" s="70"/>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B52" s="50"/>
@@ -4824,10 +4833,10 @@
     </row>
     <row r="58" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="35"/>
-      <c r="B58" s="52" t="s">
+      <c r="B58" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="52"/>
+      <c r="C58" s="77"/>
       <c r="D58" s="36"/>
       <c r="F58" s="37" t="s">
         <v>79</v>
@@ -5745,37 +5754,9 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="B7:AB7"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B16:AB16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="T49:AB49"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="T35:AB35"/>
-    <mergeCell ref="T43:AB43"/>
-    <mergeCell ref="T42:AB42"/>
-    <mergeCell ref="T41:AB41"/>
-    <mergeCell ref="T40:AB40"/>
-    <mergeCell ref="B33:AB33"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="T34:AB34"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="T45:AB45"/>
+    <mergeCell ref="T44:AB44"/>
+    <mergeCell ref="T39:AB39"/>
     <mergeCell ref="Q10:S10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="T11:W11"/>
@@ -5792,10 +5773,38 @@
     <mergeCell ref="T36:AB36"/>
     <mergeCell ref="T48:AB48"/>
     <mergeCell ref="T47:AB47"/>
+    <mergeCell ref="B16:AB16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="T49:AB49"/>
+    <mergeCell ref="T35:AB35"/>
+    <mergeCell ref="T43:AB43"/>
+    <mergeCell ref="T42:AB42"/>
+    <mergeCell ref="T41:AB41"/>
+    <mergeCell ref="T40:AB40"/>
+    <mergeCell ref="B33:AB33"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="T34:AB34"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="T46:AB46"/>
-    <mergeCell ref="T45:AB45"/>
-    <mergeCell ref="T44:AB44"/>
-    <mergeCell ref="T39:AB39"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="B7:AB7"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E9:F9"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -5851,25 +5860,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="I2" s="75" t="s">
+      <c r="I2" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="19"/>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
     </row>
     <row r="3" spans="1:28" ht="15" x14ac:dyDescent="0.15">
-      <c r="I3" s="75" t="s">
+      <c r="I3" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="19"/>
       <c r="O3" s="19"/>
       <c r="P3" s="19"/>
@@ -5887,48 +5896,48 @@
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="I4" s="75" t="s">
+      <c r="I4" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
       <c r="N4" s="19"/>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
     </row>
     <row r="7" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="80"/>
-      <c r="S7" s="80"/>
-      <c r="T7" s="80"/>
-      <c r="U7" s="80"/>
-      <c r="V7" s="80"/>
-      <c r="W7" s="80"/>
-      <c r="X7" s="80"/>
-      <c r="Y7" s="80"/>
-      <c r="Z7" s="80"/>
-      <c r="AA7" s="80"/>
-      <c r="AB7" s="80"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="60"/>
+      <c r="W7" s="60"/>
+      <c r="X7" s="60"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="60"/>
+      <c r="AB7" s="60"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B8" s="25"/>
@@ -5945,8 +5954,8 @@
         <v>1899-12-30</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -5954,33 +5963,33 @@
       <c r="K9" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L9" s="61" t="str">
+      <c r="L9" s="54" t="str">
         <f>'PAGE 1 OF'!L9:M9</f>
         <v>CENTURYLINK</v>
       </c>
-      <c r="M9" s="61"/>
-      <c r="Q9" s="64" t="s">
+      <c r="M9" s="54"/>
+      <c r="Q9" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="77"/>
-      <c r="V9" s="77"/>
-      <c r="W9" s="78"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="57"/>
     </row>
     <row r="10" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="61">
+      <c r="C10" s="62"/>
+      <c r="D10" s="54">
         <f>'PAGE 1 OF'!D10:F10</f>
         <v>0</v>
       </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -5988,16 +5997,16 @@
       <c r="K10" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="L10" s="61">
+      <c r="L10" s="54">
         <f>'PAGE 1 OF'!L10:M10</f>
         <v>0</v>
       </c>
-      <c r="M10" s="61"/>
-      <c r="Q10" s="64" t="s">
+      <c r="M10" s="54"/>
+      <c r="Q10" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="R10" s="64"/>
-      <c r="S10" s="64"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
       <c r="T10" s="53" t="s">
         <v>18</v>
       </c>
@@ -6010,16 +6019,16 @@
     </row>
     <row r="11" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="61">
+      <c r="C11" s="62"/>
+      <c r="D11" s="54">
         <f>'PAGE 1 OF'!D11:F11</f>
         <v>0</v>
       </c>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -6027,16 +6036,16 @@
       <c r="K11" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="L11" s="61">
+      <c r="L11" s="54">
         <f>'PAGE 1 OF'!L11:M11</f>
         <v>0</v>
       </c>
-      <c r="M11" s="61"/>
-      <c r="Q11" s="64" t="s">
+      <c r="M11" s="54"/>
+      <c r="Q11" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="R11" s="64"/>
-      <c r="S11" s="64"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
       <c r="T11" s="53" t="s">
         <v>18</v>
       </c>
@@ -6049,16 +6058,16 @@
     </row>
     <row r="12" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="61">
+      <c r="C12" s="62"/>
+      <c r="D12" s="54">
         <f>'PAGE 1 OF'!D12:F12</f>
         <v>0</v>
       </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -6066,16 +6075,16 @@
       <c r="K12" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="L12" s="61">
+      <c r="L12" s="54">
         <f>'PAGE 1 OF'!L12:M12</f>
         <v>0</v>
       </c>
-      <c r="M12" s="61"/>
-      <c r="Q12" s="64" t="s">
+      <c r="M12" s="54"/>
+      <c r="Q12" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="R12" s="64"/>
-      <c r="S12" s="64"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
       <c r="T12" s="53" t="s">
         <v>18</v>
       </c>
@@ -6088,16 +6097,16 @@
     </row>
     <row r="13" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="61">
+      <c r="C13" s="76"/>
+      <c r="D13" s="54">
         <f>'PAGE 1 OF'!D13:F13</f>
         <v>0</v>
       </c>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
       <c r="I13" s="5"/>
@@ -6105,16 +6114,16 @@
       <c r="K13" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="61">
+      <c r="L13" s="54">
         <f>'PAGE 1 OF'!L13:M13</f>
         <v>0</v>
       </c>
-      <c r="M13" s="61"/>
-      <c r="Q13" s="64" t="s">
+      <c r="M13" s="54"/>
+      <c r="Q13" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="R13" s="64"/>
-      <c r="S13" s="64"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
       <c r="T13" s="53" t="s">
         <v>18</v>
       </c>
@@ -6127,16 +6136,16 @@
     </row>
     <row r="14" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="61">
+      <c r="C14" s="65"/>
+      <c r="D14" s="54">
         <f>'PAGE 1 OF'!D14:F14</f>
         <v>0</v>
       </c>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -6144,11 +6153,11 @@
       <c r="K14" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="61">
+      <c r="L14" s="54">
         <f>'PAGE 1 OF'!L14:M14</f>
         <v>0</v>
       </c>
-      <c r="M14" s="61"/>
+      <c r="M14" s="54"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B15" s="26"/>
@@ -6164,35 +6173,35 @@
     </row>
     <row r="16" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="8"/>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="72"/>
-      <c r="V16" s="72"/>
-      <c r="W16" s="72"/>
-      <c r="X16" s="72"/>
-      <c r="Y16" s="72"/>
-      <c r="Z16" s="72"/>
-      <c r="AA16" s="72"/>
-      <c r="AB16" s="72"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="64"/>
+      <c r="X16" s="64"/>
+      <c r="Y16" s="64"/>
+      <c r="Z16" s="64"/>
+      <c r="AA16" s="64"/>
+      <c r="AB16" s="64"/>
     </row>
     <row r="17" spans="1:28" s="3" customFormat="1" ht="70" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
@@ -6779,35 +6788,35 @@
     </row>
     <row r="33" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="66"/>
-      <c r="P33" s="66"/>
-      <c r="Q33" s="66"/>
-      <c r="R33" s="66"/>
-      <c r="S33" s="66"/>
-      <c r="T33" s="66"/>
-      <c r="U33" s="66"/>
-      <c r="V33" s="66"/>
-      <c r="W33" s="66"/>
-      <c r="X33" s="66"/>
-      <c r="Y33" s="66"/>
-      <c r="Z33" s="66"/>
-      <c r="AA33" s="66"/>
-      <c r="AB33" s="66"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="72"/>
+      <c r="P33" s="72"/>
+      <c r="Q33" s="72"/>
+      <c r="R33" s="72"/>
+      <c r="S33" s="72"/>
+      <c r="T33" s="72"/>
+      <c r="U33" s="72"/>
+      <c r="V33" s="72"/>
+      <c r="W33" s="72"/>
+      <c r="X33" s="72"/>
+      <c r="Y33" s="72"/>
+      <c r="Z33" s="72"/>
+      <c r="AA33" s="72"/>
+      <c r="AB33" s="72"/>
     </row>
     <row r="34" spans="1:28" s="3" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
@@ -6871,17 +6880,17 @@
       <c r="S34" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="T34" s="67" t="s">
+      <c r="T34" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="U34" s="67"/>
-      <c r="V34" s="67"/>
-      <c r="W34" s="67"/>
-      <c r="X34" s="67"/>
-      <c r="Y34" s="67"/>
-      <c r="Z34" s="67"/>
-      <c r="AA34" s="67"/>
-      <c r="AB34" s="67"/>
+      <c r="U34" s="75"/>
+      <c r="V34" s="75"/>
+      <c r="W34" s="75"/>
+      <c r="X34" s="75"/>
+      <c r="Y34" s="75"/>
+      <c r="Z34" s="75"/>
+      <c r="AA34" s="75"/>
+      <c r="AB34" s="75"/>
     </row>
     <row r="35" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
@@ -6926,15 +6935,15 @@
       <c r="Q35" s="15"/>
       <c r="R35" s="15"/>
       <c r="S35" s="15"/>
-      <c r="T35" s="55"/>
-      <c r="U35" s="56"/>
-      <c r="V35" s="56"/>
-      <c r="W35" s="56"/>
-      <c r="X35" s="56"/>
-      <c r="Y35" s="56"/>
-      <c r="Z35" s="56"/>
-      <c r="AA35" s="56"/>
-      <c r="AB35" s="57"/>
+      <c r="T35" s="67"/>
+      <c r="U35" s="68"/>
+      <c r="V35" s="68"/>
+      <c r="W35" s="68"/>
+      <c r="X35" s="68"/>
+      <c r="Y35" s="68"/>
+      <c r="Z35" s="68"/>
+      <c r="AA35" s="68"/>
+      <c r="AB35" s="69"/>
     </row>
     <row r="36" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
@@ -6980,15 +6989,15 @@
       <c r="Q36" s="15"/>
       <c r="R36" s="15"/>
       <c r="S36" s="15"/>
-      <c r="T36" s="55"/>
-      <c r="U36" s="56"/>
-      <c r="V36" s="56"/>
-      <c r="W36" s="56"/>
-      <c r="X36" s="56"/>
-      <c r="Y36" s="56"/>
-      <c r="Z36" s="56"/>
-      <c r="AA36" s="56"/>
-      <c r="AB36" s="57"/>
+      <c r="T36" s="67"/>
+      <c r="U36" s="68"/>
+      <c r="V36" s="68"/>
+      <c r="W36" s="68"/>
+      <c r="X36" s="68"/>
+      <c r="Y36" s="68"/>
+      <c r="Z36" s="68"/>
+      <c r="AA36" s="68"/>
+      <c r="AB36" s="69"/>
     </row>
     <row r="37" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
@@ -7034,15 +7043,15 @@
       <c r="Q37" s="15"/>
       <c r="R37" s="15"/>
       <c r="S37" s="15"/>
-      <c r="T37" s="55"/>
-      <c r="U37" s="56"/>
-      <c r="V37" s="56"/>
-      <c r="W37" s="56"/>
-      <c r="X37" s="56"/>
-      <c r="Y37" s="56"/>
-      <c r="Z37" s="56"/>
-      <c r="AA37" s="56"/>
-      <c r="AB37" s="57"/>
+      <c r="T37" s="67"/>
+      <c r="U37" s="68"/>
+      <c r="V37" s="68"/>
+      <c r="W37" s="68"/>
+      <c r="X37" s="68"/>
+      <c r="Y37" s="68"/>
+      <c r="Z37" s="68"/>
+      <c r="AA37" s="68"/>
+      <c r="AB37" s="69"/>
     </row>
     <row r="38" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
@@ -7088,15 +7097,15 @@
       <c r="Q38" s="15"/>
       <c r="R38" s="15"/>
       <c r="S38" s="15"/>
-      <c r="T38" s="55"/>
-      <c r="U38" s="56"/>
-      <c r="V38" s="56"/>
-      <c r="W38" s="56"/>
-      <c r="X38" s="56"/>
-      <c r="Y38" s="56"/>
-      <c r="Z38" s="56"/>
-      <c r="AA38" s="56"/>
-      <c r="AB38" s="57"/>
+      <c r="T38" s="67"/>
+      <c r="U38" s="68"/>
+      <c r="V38" s="68"/>
+      <c r="W38" s="68"/>
+      <c r="X38" s="68"/>
+      <c r="Y38" s="68"/>
+      <c r="Z38" s="68"/>
+      <c r="AA38" s="68"/>
+      <c r="AB38" s="69"/>
     </row>
     <row r="39" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
@@ -7142,15 +7151,15 @@
       <c r="Q39" s="15"/>
       <c r="R39" s="15"/>
       <c r="S39" s="15"/>
-      <c r="T39" s="55"/>
-      <c r="U39" s="56"/>
-      <c r="V39" s="56"/>
-      <c r="W39" s="56"/>
-      <c r="X39" s="56"/>
-      <c r="Y39" s="56"/>
-      <c r="Z39" s="56"/>
-      <c r="AA39" s="56"/>
-      <c r="AB39" s="57"/>
+      <c r="T39" s="67"/>
+      <c r="U39" s="68"/>
+      <c r="V39" s="68"/>
+      <c r="W39" s="68"/>
+      <c r="X39" s="68"/>
+      <c r="Y39" s="68"/>
+      <c r="Z39" s="68"/>
+      <c r="AA39" s="68"/>
+      <c r="AB39" s="69"/>
     </row>
     <row r="40" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
@@ -7196,15 +7205,15 @@
       <c r="Q40" s="15"/>
       <c r="R40" s="15"/>
       <c r="S40" s="15"/>
-      <c r="T40" s="55"/>
-      <c r="U40" s="56"/>
-      <c r="V40" s="56"/>
-      <c r="W40" s="56"/>
-      <c r="X40" s="56"/>
-      <c r="Y40" s="56"/>
-      <c r="Z40" s="56"/>
-      <c r="AA40" s="56"/>
-      <c r="AB40" s="57"/>
+      <c r="T40" s="67"/>
+      <c r="U40" s="68"/>
+      <c r="V40" s="68"/>
+      <c r="W40" s="68"/>
+      <c r="X40" s="68"/>
+      <c r="Y40" s="68"/>
+      <c r="Z40" s="68"/>
+      <c r="AA40" s="68"/>
+      <c r="AB40" s="69"/>
     </row>
     <row r="41" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8">
@@ -7250,15 +7259,15 @@
       <c r="Q41" s="15"/>
       <c r="R41" s="15"/>
       <c r="S41" s="15"/>
-      <c r="T41" s="55"/>
-      <c r="U41" s="56"/>
-      <c r="V41" s="56"/>
-      <c r="W41" s="56"/>
-      <c r="X41" s="56"/>
-      <c r="Y41" s="56"/>
-      <c r="Z41" s="56"/>
-      <c r="AA41" s="56"/>
-      <c r="AB41" s="57"/>
+      <c r="T41" s="67"/>
+      <c r="U41" s="68"/>
+      <c r="V41" s="68"/>
+      <c r="W41" s="68"/>
+      <c r="X41" s="68"/>
+      <c r="Y41" s="68"/>
+      <c r="Z41" s="68"/>
+      <c r="AA41" s="68"/>
+      <c r="AB41" s="69"/>
     </row>
     <row r="42" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="8">
@@ -7304,15 +7313,15 @@
       <c r="Q42" s="15"/>
       <c r="R42" s="15"/>
       <c r="S42" s="15"/>
-      <c r="T42" s="55"/>
-      <c r="U42" s="56"/>
-      <c r="V42" s="56"/>
-      <c r="W42" s="56"/>
-      <c r="X42" s="56"/>
-      <c r="Y42" s="56"/>
-      <c r="Z42" s="56"/>
-      <c r="AA42" s="56"/>
-      <c r="AB42" s="57"/>
+      <c r="T42" s="67"/>
+      <c r="U42" s="68"/>
+      <c r="V42" s="68"/>
+      <c r="W42" s="68"/>
+      <c r="X42" s="68"/>
+      <c r="Y42" s="68"/>
+      <c r="Z42" s="68"/>
+      <c r="AA42" s="68"/>
+      <c r="AB42" s="69"/>
     </row>
     <row r="43" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="8">
@@ -7358,15 +7367,15 @@
       <c r="Q43" s="15"/>
       <c r="R43" s="15"/>
       <c r="S43" s="15"/>
-      <c r="T43" s="55"/>
-      <c r="U43" s="56"/>
-      <c r="V43" s="56"/>
-      <c r="W43" s="56"/>
-      <c r="X43" s="56"/>
-      <c r="Y43" s="56"/>
-      <c r="Z43" s="56"/>
-      <c r="AA43" s="56"/>
-      <c r="AB43" s="57"/>
+      <c r="T43" s="67"/>
+      <c r="U43" s="68"/>
+      <c r="V43" s="68"/>
+      <c r="W43" s="68"/>
+      <c r="X43" s="68"/>
+      <c r="Y43" s="68"/>
+      <c r="Z43" s="68"/>
+      <c r="AA43" s="68"/>
+      <c r="AB43" s="69"/>
     </row>
     <row r="44" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="8">
@@ -7412,15 +7421,15 @@
       <c r="Q44" s="15"/>
       <c r="R44" s="15"/>
       <c r="S44" s="15"/>
-      <c r="T44" s="55"/>
-      <c r="U44" s="56"/>
-      <c r="V44" s="56"/>
-      <c r="W44" s="56"/>
-      <c r="X44" s="56"/>
-      <c r="Y44" s="56"/>
-      <c r="Z44" s="56"/>
-      <c r="AA44" s="56"/>
-      <c r="AB44" s="57"/>
+      <c r="T44" s="67"/>
+      <c r="U44" s="68"/>
+      <c r="V44" s="68"/>
+      <c r="W44" s="68"/>
+      <c r="X44" s="68"/>
+      <c r="Y44" s="68"/>
+      <c r="Z44" s="68"/>
+      <c r="AA44" s="68"/>
+      <c r="AB44" s="69"/>
     </row>
     <row r="45" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="8">
@@ -7466,15 +7475,15 @@
       <c r="Q45" s="15"/>
       <c r="R45" s="15"/>
       <c r="S45" s="15"/>
-      <c r="T45" s="55"/>
-      <c r="U45" s="56"/>
-      <c r="V45" s="56"/>
-      <c r="W45" s="56"/>
-      <c r="X45" s="56"/>
-      <c r="Y45" s="56"/>
-      <c r="Z45" s="56"/>
-      <c r="AA45" s="56"/>
-      <c r="AB45" s="57"/>
+      <c r="T45" s="67"/>
+      <c r="U45" s="68"/>
+      <c r="V45" s="68"/>
+      <c r="W45" s="68"/>
+      <c r="X45" s="68"/>
+      <c r="Y45" s="68"/>
+      <c r="Z45" s="68"/>
+      <c r="AA45" s="68"/>
+      <c r="AB45" s="69"/>
     </row>
     <row r="46" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="8">
@@ -7520,15 +7529,15 @@
       <c r="Q46" s="15"/>
       <c r="R46" s="15"/>
       <c r="S46" s="15"/>
-      <c r="T46" s="55"/>
-      <c r="U46" s="56"/>
-      <c r="V46" s="56"/>
-      <c r="W46" s="56"/>
-      <c r="X46" s="56"/>
-      <c r="Y46" s="56"/>
-      <c r="Z46" s="56"/>
-      <c r="AA46" s="56"/>
-      <c r="AB46" s="57"/>
+      <c r="T46" s="67"/>
+      <c r="U46" s="68"/>
+      <c r="V46" s="68"/>
+      <c r="W46" s="68"/>
+      <c r="X46" s="68"/>
+      <c r="Y46" s="68"/>
+      <c r="Z46" s="68"/>
+      <c r="AA46" s="68"/>
+      <c r="AB46" s="69"/>
     </row>
     <row r="47" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="8">
@@ -7574,15 +7583,15 @@
       <c r="Q47" s="15"/>
       <c r="R47" s="15"/>
       <c r="S47" s="15"/>
-      <c r="T47" s="55"/>
-      <c r="U47" s="56"/>
-      <c r="V47" s="56"/>
-      <c r="W47" s="56"/>
-      <c r="X47" s="56"/>
-      <c r="Y47" s="56"/>
-      <c r="Z47" s="56"/>
-      <c r="AA47" s="56"/>
-      <c r="AB47" s="57"/>
+      <c r="T47" s="67"/>
+      <c r="U47" s="68"/>
+      <c r="V47" s="68"/>
+      <c r="W47" s="68"/>
+      <c r="X47" s="68"/>
+      <c r="Y47" s="68"/>
+      <c r="Z47" s="68"/>
+      <c r="AA47" s="68"/>
+      <c r="AB47" s="69"/>
     </row>
     <row r="48" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="8">
@@ -7628,15 +7637,15 @@
       <c r="Q48" s="15"/>
       <c r="R48" s="15"/>
       <c r="S48" s="15"/>
-      <c r="T48" s="55"/>
-      <c r="U48" s="56"/>
-      <c r="V48" s="56"/>
-      <c r="W48" s="56"/>
-      <c r="X48" s="56"/>
-      <c r="Y48" s="56"/>
-      <c r="Z48" s="56"/>
-      <c r="AA48" s="56"/>
-      <c r="AB48" s="57"/>
+      <c r="T48" s="67"/>
+      <c r="U48" s="68"/>
+      <c r="V48" s="68"/>
+      <c r="W48" s="68"/>
+      <c r="X48" s="68"/>
+      <c r="Y48" s="68"/>
+      <c r="Z48" s="68"/>
+      <c r="AA48" s="68"/>
+      <c r="AB48" s="69"/>
     </row>
     <row r="49" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="8">
@@ -7682,15 +7691,15 @@
       <c r="Q49" s="15"/>
       <c r="R49" s="15"/>
       <c r="S49" s="15"/>
-      <c r="T49" s="55"/>
-      <c r="U49" s="56"/>
-      <c r="V49" s="56"/>
-      <c r="W49" s="56"/>
-      <c r="X49" s="56"/>
-      <c r="Y49" s="56"/>
-      <c r="Z49" s="56"/>
-      <c r="AA49" s="56"/>
-      <c r="AB49" s="57"/>
+      <c r="T49" s="67"/>
+      <c r="U49" s="68"/>
+      <c r="V49" s="68"/>
+      <c r="W49" s="68"/>
+      <c r="X49" s="68"/>
+      <c r="Y49" s="68"/>
+      <c r="Z49" s="68"/>
+      <c r="AA49" s="68"/>
+      <c r="AB49" s="69"/>
     </row>
     <row r="50" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
@@ -7700,9 +7709,9 @@
       <c r="Q50" s="4"/>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="P51" s="54"/>
-      <c r="Q51" s="54"/>
-      <c r="R51" s="54"/>
+      <c r="P51" s="70"/>
+      <c r="Q51" s="70"/>
+      <c r="R51" s="70"/>
     </row>
     <row r="53" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="35"/>
@@ -7741,10 +7750,10 @@
     </row>
     <row r="58" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="35"/>
-      <c r="B58" s="52" t="s">
+      <c r="B58" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="52"/>
+      <c r="C58" s="77"/>
       <c r="D58" s="36"/>
       <c r="F58" s="37" t="s">
         <v>79</v>
@@ -8434,42 +8443,11 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="B7:AB7"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="T36:AB36"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="B16:AB16"/>
-    <mergeCell ref="B33:AB33"/>
-    <mergeCell ref="T34:AB34"/>
-    <mergeCell ref="T35:AB35"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="T40:AB40"/>
+    <mergeCell ref="T39:AB39"/>
+    <mergeCell ref="T38:AB38"/>
     <mergeCell ref="T37:AB37"/>
     <mergeCell ref="T49:AB49"/>
     <mergeCell ref="T48:AB48"/>
@@ -8480,11 +8458,42 @@
     <mergeCell ref="T43:AB43"/>
     <mergeCell ref="T42:AB42"/>
     <mergeCell ref="T41:AB41"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="T40:AB40"/>
-    <mergeCell ref="T39:AB39"/>
-    <mergeCell ref="T38:AB38"/>
+    <mergeCell ref="T36:AB36"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="B16:AB16"/>
+    <mergeCell ref="B33:AB33"/>
+    <mergeCell ref="T34:AB34"/>
+    <mergeCell ref="T35:AB35"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="B7:AB7"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:W9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R14" xr:uid="{00000000-0002-0000-0100-000003000000}">
@@ -8539,25 +8548,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="I2" s="75" t="s">
+      <c r="I2" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="19"/>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
     </row>
     <row r="3" spans="1:28" ht="15" x14ac:dyDescent="0.15">
-      <c r="I3" s="75" t="s">
+      <c r="I3" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="19"/>
       <c r="O3" s="19"/>
       <c r="P3" s="19"/>
@@ -8575,48 +8584,48 @@
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="I4" s="75" t="s">
+      <c r="I4" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
       <c r="N4" s="19"/>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
     </row>
     <row r="7" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="80"/>
-      <c r="S7" s="80"/>
-      <c r="T7" s="80"/>
-      <c r="U7" s="80"/>
-      <c r="V7" s="80"/>
-      <c r="W7" s="80"/>
-      <c r="X7" s="80"/>
-      <c r="Y7" s="80"/>
-      <c r="Z7" s="80"/>
-      <c r="AA7" s="80"/>
-      <c r="AB7" s="80"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="60"/>
+      <c r="W7" s="60"/>
+      <c r="X7" s="60"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="60"/>
+      <c r="AB7" s="60"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B8" s="25"/>
@@ -8633,8 +8642,8 @@
         <v>1899-12-30</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -8642,33 +8651,33 @@
       <c r="K9" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L9" s="61" t="str">
+      <c r="L9" s="54" t="str">
         <f>'PAGE 1 OF'!L9:M9</f>
         <v>CENTURYLINK</v>
       </c>
-      <c r="M9" s="61"/>
-      <c r="Q9" s="64" t="s">
+      <c r="M9" s="54"/>
+      <c r="Q9" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="77"/>
-      <c r="V9" s="77"/>
-      <c r="W9" s="78"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="57"/>
     </row>
     <row r="10" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="61">
+      <c r="C10" s="62"/>
+      <c r="D10" s="54">
         <f>'PAGE 1 OF'!D10:F10</f>
         <v>0</v>
       </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -8676,16 +8685,16 @@
       <c r="K10" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="L10" s="61">
+      <c r="L10" s="54">
         <f>'PAGE 1 OF'!L10:M10</f>
         <v>0</v>
       </c>
-      <c r="M10" s="61"/>
-      <c r="Q10" s="64" t="s">
+      <c r="M10" s="54"/>
+      <c r="Q10" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="R10" s="64"/>
-      <c r="S10" s="64"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
       <c r="T10" s="53" t="s">
         <v>18</v>
       </c>
@@ -8698,16 +8707,16 @@
     </row>
     <row r="11" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="61">
+      <c r="C11" s="62"/>
+      <c r="D11" s="54">
         <f>'PAGE 1 OF'!D11:F11</f>
         <v>0</v>
       </c>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -8715,16 +8724,16 @@
       <c r="K11" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="L11" s="61">
+      <c r="L11" s="54">
         <f>'PAGE 1 OF'!L11:M11</f>
         <v>0</v>
       </c>
-      <c r="M11" s="61"/>
-      <c r="Q11" s="64" t="s">
+      <c r="M11" s="54"/>
+      <c r="Q11" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="R11" s="64"/>
-      <c r="S11" s="64"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
       <c r="T11" s="53" t="s">
         <v>18</v>
       </c>
@@ -8737,16 +8746,16 @@
     </row>
     <row r="12" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="61">
+      <c r="C12" s="62"/>
+      <c r="D12" s="54">
         <f>'PAGE 1 OF'!D12:F12</f>
         <v>0</v>
       </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -8754,16 +8763,16 @@
       <c r="K12" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="L12" s="61">
+      <c r="L12" s="54">
         <f>'PAGE 1 OF'!L12:M12</f>
         <v>0</v>
       </c>
-      <c r="M12" s="61"/>
-      <c r="Q12" s="64" t="s">
+      <c r="M12" s="54"/>
+      <c r="Q12" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="R12" s="64"/>
-      <c r="S12" s="64"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
       <c r="T12" s="53" t="s">
         <v>18</v>
       </c>
@@ -8776,16 +8785,16 @@
     </row>
     <row r="13" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="61">
+      <c r="C13" s="76"/>
+      <c r="D13" s="54">
         <f>'PAGE 1 OF'!D13:F13</f>
         <v>0</v>
       </c>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
       <c r="I13" s="5"/>
@@ -8793,16 +8802,16 @@
       <c r="K13" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="61">
+      <c r="L13" s="54">
         <f>'PAGE 1 OF'!L13:M13</f>
         <v>0</v>
       </c>
-      <c r="M13" s="61"/>
-      <c r="Q13" s="64" t="s">
+      <c r="M13" s="54"/>
+      <c r="Q13" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="R13" s="64"/>
-      <c r="S13" s="64"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
       <c r="T13" s="53" t="s">
         <v>18</v>
       </c>
@@ -8815,16 +8824,16 @@
     </row>
     <row r="14" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="61">
+      <c r="C14" s="65"/>
+      <c r="D14" s="54">
         <f>'PAGE 1 OF'!D14:F14</f>
         <v>0</v>
       </c>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -8832,11 +8841,11 @@
       <c r="K14" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="61">
+      <c r="L14" s="54">
         <f>'PAGE 1 OF'!L14:M14</f>
         <v>0</v>
       </c>
-      <c r="M14" s="61"/>
+      <c r="M14" s="54"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B15" s="26"/>
@@ -8852,35 +8861,35 @@
     </row>
     <row r="16" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="8"/>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="72"/>
-      <c r="V16" s="72"/>
-      <c r="W16" s="72"/>
-      <c r="X16" s="72"/>
-      <c r="Y16" s="72"/>
-      <c r="Z16" s="72"/>
-      <c r="AA16" s="72"/>
-      <c r="AB16" s="72"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="64"/>
+      <c r="X16" s="64"/>
+      <c r="Y16" s="64"/>
+      <c r="Z16" s="64"/>
+      <c r="AA16" s="64"/>
+      <c r="AB16" s="64"/>
     </row>
     <row r="17" spans="1:28" s="3" customFormat="1" ht="70" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
@@ -9467,35 +9476,35 @@
     </row>
     <row r="33" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="66"/>
-      <c r="P33" s="66"/>
-      <c r="Q33" s="66"/>
-      <c r="R33" s="66"/>
-      <c r="S33" s="66"/>
-      <c r="T33" s="66"/>
-      <c r="U33" s="66"/>
-      <c r="V33" s="66"/>
-      <c r="W33" s="66"/>
-      <c r="X33" s="66"/>
-      <c r="Y33" s="66"/>
-      <c r="Z33" s="66"/>
-      <c r="AA33" s="66"/>
-      <c r="AB33" s="66"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="72"/>
+      <c r="P33" s="72"/>
+      <c r="Q33" s="72"/>
+      <c r="R33" s="72"/>
+      <c r="S33" s="72"/>
+      <c r="T33" s="72"/>
+      <c r="U33" s="72"/>
+      <c r="V33" s="72"/>
+      <c r="W33" s="72"/>
+      <c r="X33" s="72"/>
+      <c r="Y33" s="72"/>
+      <c r="Z33" s="72"/>
+      <c r="AA33" s="72"/>
+      <c r="AB33" s="72"/>
     </row>
     <row r="34" spans="1:28" s="3" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
@@ -9559,17 +9568,17 @@
       <c r="S34" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="T34" s="67" t="s">
+      <c r="T34" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="U34" s="67"/>
-      <c r="V34" s="67"/>
-      <c r="W34" s="67"/>
-      <c r="X34" s="67"/>
-      <c r="Y34" s="67"/>
-      <c r="Z34" s="67"/>
-      <c r="AA34" s="67"/>
-      <c r="AB34" s="67"/>
+      <c r="U34" s="75"/>
+      <c r="V34" s="75"/>
+      <c r="W34" s="75"/>
+      <c r="X34" s="75"/>
+      <c r="Y34" s="75"/>
+      <c r="Z34" s="75"/>
+      <c r="AA34" s="75"/>
+      <c r="AB34" s="75"/>
     </row>
     <row r="35" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
@@ -9614,15 +9623,15 @@
       <c r="Q35" s="15"/>
       <c r="R35" s="15"/>
       <c r="S35" s="15"/>
-      <c r="T35" s="55"/>
-      <c r="U35" s="56"/>
-      <c r="V35" s="56"/>
-      <c r="W35" s="56"/>
-      <c r="X35" s="56"/>
-      <c r="Y35" s="56"/>
-      <c r="Z35" s="56"/>
-      <c r="AA35" s="56"/>
-      <c r="AB35" s="57"/>
+      <c r="T35" s="67"/>
+      <c r="U35" s="68"/>
+      <c r="V35" s="68"/>
+      <c r="W35" s="68"/>
+      <c r="X35" s="68"/>
+      <c r="Y35" s="68"/>
+      <c r="Z35" s="68"/>
+      <c r="AA35" s="68"/>
+      <c r="AB35" s="69"/>
     </row>
     <row r="36" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
@@ -9668,15 +9677,15 @@
       <c r="Q36" s="15"/>
       <c r="R36" s="15"/>
       <c r="S36" s="15"/>
-      <c r="T36" s="55"/>
-      <c r="U36" s="56"/>
-      <c r="V36" s="56"/>
-      <c r="W36" s="56"/>
-      <c r="X36" s="56"/>
-      <c r="Y36" s="56"/>
-      <c r="Z36" s="56"/>
-      <c r="AA36" s="56"/>
-      <c r="AB36" s="57"/>
+      <c r="T36" s="67"/>
+      <c r="U36" s="68"/>
+      <c r="V36" s="68"/>
+      <c r="W36" s="68"/>
+      <c r="X36" s="68"/>
+      <c r="Y36" s="68"/>
+      <c r="Z36" s="68"/>
+      <c r="AA36" s="68"/>
+      <c r="AB36" s="69"/>
     </row>
     <row r="37" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
@@ -9722,15 +9731,15 @@
       <c r="Q37" s="15"/>
       <c r="R37" s="15"/>
       <c r="S37" s="15"/>
-      <c r="T37" s="55"/>
-      <c r="U37" s="56"/>
-      <c r="V37" s="56"/>
-      <c r="W37" s="56"/>
-      <c r="X37" s="56"/>
-      <c r="Y37" s="56"/>
-      <c r="Z37" s="56"/>
-      <c r="AA37" s="56"/>
-      <c r="AB37" s="57"/>
+      <c r="T37" s="67"/>
+      <c r="U37" s="68"/>
+      <c r="V37" s="68"/>
+      <c r="W37" s="68"/>
+      <c r="X37" s="68"/>
+      <c r="Y37" s="68"/>
+      <c r="Z37" s="68"/>
+      <c r="AA37" s="68"/>
+      <c r="AB37" s="69"/>
     </row>
     <row r="38" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
@@ -9776,15 +9785,15 @@
       <c r="Q38" s="15"/>
       <c r="R38" s="15"/>
       <c r="S38" s="15"/>
-      <c r="T38" s="55"/>
-      <c r="U38" s="56"/>
-      <c r="V38" s="56"/>
-      <c r="W38" s="56"/>
-      <c r="X38" s="56"/>
-      <c r="Y38" s="56"/>
-      <c r="Z38" s="56"/>
-      <c r="AA38" s="56"/>
-      <c r="AB38" s="57"/>
+      <c r="T38" s="67"/>
+      <c r="U38" s="68"/>
+      <c r="V38" s="68"/>
+      <c r="W38" s="68"/>
+      <c r="X38" s="68"/>
+      <c r="Y38" s="68"/>
+      <c r="Z38" s="68"/>
+      <c r="AA38" s="68"/>
+      <c r="AB38" s="69"/>
     </row>
     <row r="39" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
@@ -9830,15 +9839,15 @@
       <c r="Q39" s="15"/>
       <c r="R39" s="15"/>
       <c r="S39" s="15"/>
-      <c r="T39" s="55"/>
-      <c r="U39" s="56"/>
-      <c r="V39" s="56"/>
-      <c r="W39" s="56"/>
-      <c r="X39" s="56"/>
-      <c r="Y39" s="56"/>
-      <c r="Z39" s="56"/>
-      <c r="AA39" s="56"/>
-      <c r="AB39" s="57"/>
+      <c r="T39" s="67"/>
+      <c r="U39" s="68"/>
+      <c r="V39" s="68"/>
+      <c r="W39" s="68"/>
+      <c r="X39" s="68"/>
+      <c r="Y39" s="68"/>
+      <c r="Z39" s="68"/>
+      <c r="AA39" s="68"/>
+      <c r="AB39" s="69"/>
     </row>
     <row r="40" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
@@ -9884,15 +9893,15 @@
       <c r="Q40" s="15"/>
       <c r="R40" s="15"/>
       <c r="S40" s="15"/>
-      <c r="T40" s="55"/>
-      <c r="U40" s="56"/>
-      <c r="V40" s="56"/>
-      <c r="W40" s="56"/>
-      <c r="X40" s="56"/>
-      <c r="Y40" s="56"/>
-      <c r="Z40" s="56"/>
-      <c r="AA40" s="56"/>
-      <c r="AB40" s="57"/>
+      <c r="T40" s="67"/>
+      <c r="U40" s="68"/>
+      <c r="V40" s="68"/>
+      <c r="W40" s="68"/>
+      <c r="X40" s="68"/>
+      <c r="Y40" s="68"/>
+      <c r="Z40" s="68"/>
+      <c r="AA40" s="68"/>
+      <c r="AB40" s="69"/>
     </row>
     <row r="41" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8">
@@ -9938,15 +9947,15 @@
       <c r="Q41" s="15"/>
       <c r="R41" s="15"/>
       <c r="S41" s="15"/>
-      <c r="T41" s="55"/>
-      <c r="U41" s="56"/>
-      <c r="V41" s="56"/>
-      <c r="W41" s="56"/>
-      <c r="X41" s="56"/>
-      <c r="Y41" s="56"/>
-      <c r="Z41" s="56"/>
-      <c r="AA41" s="56"/>
-      <c r="AB41" s="57"/>
+      <c r="T41" s="67"/>
+      <c r="U41" s="68"/>
+      <c r="V41" s="68"/>
+      <c r="W41" s="68"/>
+      <c r="X41" s="68"/>
+      <c r="Y41" s="68"/>
+      <c r="Z41" s="68"/>
+      <c r="AA41" s="68"/>
+      <c r="AB41" s="69"/>
     </row>
     <row r="42" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="8">
@@ -9992,15 +10001,15 @@
       <c r="Q42" s="15"/>
       <c r="R42" s="15"/>
       <c r="S42" s="15"/>
-      <c r="T42" s="55"/>
-      <c r="U42" s="56"/>
-      <c r="V42" s="56"/>
-      <c r="W42" s="56"/>
-      <c r="X42" s="56"/>
-      <c r="Y42" s="56"/>
-      <c r="Z42" s="56"/>
-      <c r="AA42" s="56"/>
-      <c r="AB42" s="57"/>
+      <c r="T42" s="67"/>
+      <c r="U42" s="68"/>
+      <c r="V42" s="68"/>
+      <c r="W42" s="68"/>
+      <c r="X42" s="68"/>
+      <c r="Y42" s="68"/>
+      <c r="Z42" s="68"/>
+      <c r="AA42" s="68"/>
+      <c r="AB42" s="69"/>
     </row>
     <row r="43" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="8">
@@ -10046,15 +10055,15 @@
       <c r="Q43" s="15"/>
       <c r="R43" s="15"/>
       <c r="S43" s="15"/>
-      <c r="T43" s="55"/>
-      <c r="U43" s="56"/>
-      <c r="V43" s="56"/>
-      <c r="W43" s="56"/>
-      <c r="X43" s="56"/>
-      <c r="Y43" s="56"/>
-      <c r="Z43" s="56"/>
-      <c r="AA43" s="56"/>
-      <c r="AB43" s="57"/>
+      <c r="T43" s="67"/>
+      <c r="U43" s="68"/>
+      <c r="V43" s="68"/>
+      <c r="W43" s="68"/>
+      <c r="X43" s="68"/>
+      <c r="Y43" s="68"/>
+      <c r="Z43" s="68"/>
+      <c r="AA43" s="68"/>
+      <c r="AB43" s="69"/>
     </row>
     <row r="44" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="8">
@@ -10100,15 +10109,15 @@
       <c r="Q44" s="15"/>
       <c r="R44" s="15"/>
       <c r="S44" s="15"/>
-      <c r="T44" s="55"/>
-      <c r="U44" s="56"/>
-      <c r="V44" s="56"/>
-      <c r="W44" s="56"/>
-      <c r="X44" s="56"/>
-      <c r="Y44" s="56"/>
-      <c r="Z44" s="56"/>
-      <c r="AA44" s="56"/>
-      <c r="AB44" s="57"/>
+      <c r="T44" s="67"/>
+      <c r="U44" s="68"/>
+      <c r="V44" s="68"/>
+      <c r="W44" s="68"/>
+      <c r="X44" s="68"/>
+      <c r="Y44" s="68"/>
+      <c r="Z44" s="68"/>
+      <c r="AA44" s="68"/>
+      <c r="AB44" s="69"/>
     </row>
     <row r="45" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="8">
@@ -10154,15 +10163,15 @@
       <c r="Q45" s="15"/>
       <c r="R45" s="15"/>
       <c r="S45" s="15"/>
-      <c r="T45" s="55"/>
-      <c r="U45" s="56"/>
-      <c r="V45" s="56"/>
-      <c r="W45" s="56"/>
-      <c r="X45" s="56"/>
-      <c r="Y45" s="56"/>
-      <c r="Z45" s="56"/>
-      <c r="AA45" s="56"/>
-      <c r="AB45" s="57"/>
+      <c r="T45" s="67"/>
+      <c r="U45" s="68"/>
+      <c r="V45" s="68"/>
+      <c r="W45" s="68"/>
+      <c r="X45" s="68"/>
+      <c r="Y45" s="68"/>
+      <c r="Z45" s="68"/>
+      <c r="AA45" s="68"/>
+      <c r="AB45" s="69"/>
     </row>
     <row r="46" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="8">
@@ -10208,15 +10217,15 @@
       <c r="Q46" s="15"/>
       <c r="R46" s="15"/>
       <c r="S46" s="15"/>
-      <c r="T46" s="55"/>
-      <c r="U46" s="56"/>
-      <c r="V46" s="56"/>
-      <c r="W46" s="56"/>
-      <c r="X46" s="56"/>
-      <c r="Y46" s="56"/>
-      <c r="Z46" s="56"/>
-      <c r="AA46" s="56"/>
-      <c r="AB46" s="57"/>
+      <c r="T46" s="67"/>
+      <c r="U46" s="68"/>
+      <c r="V46" s="68"/>
+      <c r="W46" s="68"/>
+      <c r="X46" s="68"/>
+      <c r="Y46" s="68"/>
+      <c r="Z46" s="68"/>
+      <c r="AA46" s="68"/>
+      <c r="AB46" s="69"/>
     </row>
     <row r="47" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="8">
@@ -10262,15 +10271,15 @@
       <c r="Q47" s="15"/>
       <c r="R47" s="15"/>
       <c r="S47" s="15"/>
-      <c r="T47" s="55"/>
-      <c r="U47" s="56"/>
-      <c r="V47" s="56"/>
-      <c r="W47" s="56"/>
-      <c r="X47" s="56"/>
-      <c r="Y47" s="56"/>
-      <c r="Z47" s="56"/>
-      <c r="AA47" s="56"/>
-      <c r="AB47" s="57"/>
+      <c r="T47" s="67"/>
+      <c r="U47" s="68"/>
+      <c r="V47" s="68"/>
+      <c r="W47" s="68"/>
+      <c r="X47" s="68"/>
+      <c r="Y47" s="68"/>
+      <c r="Z47" s="68"/>
+      <c r="AA47" s="68"/>
+      <c r="AB47" s="69"/>
     </row>
     <row r="48" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="8">
@@ -10316,15 +10325,15 @@
       <c r="Q48" s="15"/>
       <c r="R48" s="15"/>
       <c r="S48" s="15"/>
-      <c r="T48" s="55"/>
-      <c r="U48" s="56"/>
-      <c r="V48" s="56"/>
-      <c r="W48" s="56"/>
-      <c r="X48" s="56"/>
-      <c r="Y48" s="56"/>
-      <c r="Z48" s="56"/>
-      <c r="AA48" s="56"/>
-      <c r="AB48" s="57"/>
+      <c r="T48" s="67"/>
+      <c r="U48" s="68"/>
+      <c r="V48" s="68"/>
+      <c r="W48" s="68"/>
+      <c r="X48" s="68"/>
+      <c r="Y48" s="68"/>
+      <c r="Z48" s="68"/>
+      <c r="AA48" s="68"/>
+      <c r="AB48" s="69"/>
     </row>
     <row r="49" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="8">
@@ -10370,15 +10379,15 @@
       <c r="Q49" s="15"/>
       <c r="R49" s="15"/>
       <c r="S49" s="15"/>
-      <c r="T49" s="55"/>
-      <c r="U49" s="56"/>
-      <c r="V49" s="56"/>
-      <c r="W49" s="56"/>
-      <c r="X49" s="56"/>
-      <c r="Y49" s="56"/>
-      <c r="Z49" s="56"/>
-      <c r="AA49" s="56"/>
-      <c r="AB49" s="57"/>
+      <c r="T49" s="67"/>
+      <c r="U49" s="68"/>
+      <c r="V49" s="68"/>
+      <c r="W49" s="68"/>
+      <c r="X49" s="68"/>
+      <c r="Y49" s="68"/>
+      <c r="Z49" s="68"/>
+      <c r="AA49" s="68"/>
+      <c r="AB49" s="69"/>
     </row>
     <row r="50" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
@@ -10388,9 +10397,9 @@
       <c r="Q50" s="4"/>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="P51" s="54"/>
-      <c r="Q51" s="54"/>
-      <c r="R51" s="54"/>
+      <c r="P51" s="70"/>
+      <c r="Q51" s="70"/>
+      <c r="R51" s="70"/>
     </row>
     <row r="53" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="35"/>
@@ -10429,10 +10438,10 @@
     </row>
     <row r="58" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="35"/>
-      <c r="B58" s="52" t="s">
+      <c r="B58" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="52"/>
+      <c r="C58" s="77"/>
       <c r="D58" s="36"/>
       <c r="F58" s="37" t="s">
         <v>79</v>
@@ -11122,42 +11131,11 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="B7:AB7"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="T36:AB36"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="B16:AB16"/>
-    <mergeCell ref="B33:AB33"/>
-    <mergeCell ref="T34:AB34"/>
-    <mergeCell ref="T35:AB35"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="T40:AB40"/>
+    <mergeCell ref="T39:AB39"/>
+    <mergeCell ref="T38:AB38"/>
     <mergeCell ref="T37:AB37"/>
     <mergeCell ref="T49:AB49"/>
     <mergeCell ref="T48:AB48"/>
@@ -11168,11 +11146,42 @@
     <mergeCell ref="T43:AB43"/>
     <mergeCell ref="T42:AB42"/>
     <mergeCell ref="T41:AB41"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="T40:AB40"/>
-    <mergeCell ref="T39:AB39"/>
-    <mergeCell ref="T38:AB38"/>
+    <mergeCell ref="T36:AB36"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="B16:AB16"/>
+    <mergeCell ref="B33:AB33"/>
+    <mergeCell ref="T34:AB34"/>
+    <mergeCell ref="T35:AB35"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="B7:AB7"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:W9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R14" xr:uid="{00000000-0002-0000-0200-000003000000}">
@@ -11227,25 +11236,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="I2" s="75" t="s">
+      <c r="I2" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="19"/>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
     </row>
     <row r="3" spans="1:28" ht="15" x14ac:dyDescent="0.15">
-      <c r="I3" s="75" t="s">
+      <c r="I3" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="19"/>
       <c r="O3" s="19"/>
       <c r="P3" s="19"/>
@@ -11263,48 +11272,48 @@
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="I4" s="75" t="s">
+      <c r="I4" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
       <c r="N4" s="19"/>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
     </row>
     <row r="7" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="80"/>
-      <c r="S7" s="80"/>
-      <c r="T7" s="80"/>
-      <c r="U7" s="80"/>
-      <c r="V7" s="80"/>
-      <c r="W7" s="80"/>
-      <c r="X7" s="80"/>
-      <c r="Y7" s="80"/>
-      <c r="Z7" s="80"/>
-      <c r="AA7" s="80"/>
-      <c r="AB7" s="80"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="60"/>
+      <c r="W7" s="60"/>
+      <c r="X7" s="60"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="60"/>
+      <c r="AB7" s="60"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B8" s="25"/>
@@ -11321,8 +11330,8 @@
         <v>1899-12-30</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -11330,33 +11339,33 @@
       <c r="K9" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L9" s="61" t="str">
+      <c r="L9" s="54" t="str">
         <f>'PAGE 1 OF'!L9:M9</f>
         <v>CENTURYLINK</v>
       </c>
-      <c r="M9" s="61"/>
-      <c r="Q9" s="64" t="s">
+      <c r="M9" s="54"/>
+      <c r="Q9" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="77"/>
-      <c r="V9" s="77"/>
-      <c r="W9" s="78"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="57"/>
     </row>
     <row r="10" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="61">
+      <c r="C10" s="62"/>
+      <c r="D10" s="54">
         <f>'PAGE 1 OF'!D10:F10</f>
         <v>0</v>
       </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -11364,16 +11373,16 @@
       <c r="K10" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="L10" s="61">
+      <c r="L10" s="54">
         <f>'PAGE 1 OF'!L10:M10</f>
         <v>0</v>
       </c>
-      <c r="M10" s="61"/>
-      <c r="Q10" s="64" t="s">
+      <c r="M10" s="54"/>
+      <c r="Q10" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="R10" s="64"/>
-      <c r="S10" s="64"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
       <c r="T10" s="53" t="s">
         <v>18</v>
       </c>
@@ -11386,16 +11395,16 @@
     </row>
     <row r="11" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="61">
+      <c r="C11" s="62"/>
+      <c r="D11" s="54">
         <f>'PAGE 1 OF'!D11:F11</f>
         <v>0</v>
       </c>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -11403,16 +11412,16 @@
       <c r="K11" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="L11" s="61">
+      <c r="L11" s="54">
         <f>'PAGE 1 OF'!L11:M11</f>
         <v>0</v>
       </c>
-      <c r="M11" s="61"/>
-      <c r="Q11" s="64" t="s">
+      <c r="M11" s="54"/>
+      <c r="Q11" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="R11" s="64"/>
-      <c r="S11" s="64"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
       <c r="T11" s="53" t="s">
         <v>18</v>
       </c>
@@ -11425,16 +11434,16 @@
     </row>
     <row r="12" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="61">
+      <c r="C12" s="62"/>
+      <c r="D12" s="54">
         <f>'PAGE 1 OF'!D12:F12</f>
         <v>0</v>
       </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -11442,16 +11451,16 @@
       <c r="K12" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="L12" s="61">
+      <c r="L12" s="54">
         <f>'PAGE 1 OF'!L12:M12</f>
         <v>0</v>
       </c>
-      <c r="M12" s="61"/>
-      <c r="Q12" s="64" t="s">
+      <c r="M12" s="54"/>
+      <c r="Q12" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="R12" s="64"/>
-      <c r="S12" s="64"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
       <c r="T12" s="53" t="s">
         <v>18</v>
       </c>
@@ -11464,16 +11473,16 @@
     </row>
     <row r="13" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="61">
+      <c r="C13" s="76"/>
+      <c r="D13" s="54">
         <f>'PAGE 1 OF'!D13:F13</f>
         <v>0</v>
       </c>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
       <c r="I13" s="5"/>
@@ -11481,16 +11490,16 @@
       <c r="K13" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="61">
+      <c r="L13" s="54">
         <f>'PAGE 1 OF'!L13:M13</f>
         <v>0</v>
       </c>
-      <c r="M13" s="61"/>
-      <c r="Q13" s="64" t="s">
+      <c r="M13" s="54"/>
+      <c r="Q13" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="R13" s="64"/>
-      <c r="S13" s="64"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
       <c r="T13" s="53" t="s">
         <v>18</v>
       </c>
@@ -11503,16 +11512,16 @@
     </row>
     <row r="14" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="61">
+      <c r="C14" s="65"/>
+      <c r="D14" s="54">
         <f>'PAGE 1 OF'!D14:F14</f>
         <v>0</v>
       </c>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -11520,11 +11529,11 @@
       <c r="K14" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="61">
+      <c r="L14" s="54">
         <f>'PAGE 1 OF'!L14:M14</f>
         <v>0</v>
       </c>
-      <c r="M14" s="61"/>
+      <c r="M14" s="54"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B15" s="26"/>
@@ -11540,35 +11549,35 @@
     </row>
     <row r="16" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="8"/>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="72"/>
-      <c r="V16" s="72"/>
-      <c r="W16" s="72"/>
-      <c r="X16" s="72"/>
-      <c r="Y16" s="72"/>
-      <c r="Z16" s="72"/>
-      <c r="AA16" s="72"/>
-      <c r="AB16" s="72"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="64"/>
+      <c r="X16" s="64"/>
+      <c r="Y16" s="64"/>
+      <c r="Z16" s="64"/>
+      <c r="AA16" s="64"/>
+      <c r="AB16" s="64"/>
     </row>
     <row r="17" spans="1:28" s="3" customFormat="1" ht="70" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
@@ -12155,35 +12164,35 @@
     </row>
     <row r="33" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="66"/>
-      <c r="P33" s="66"/>
-      <c r="Q33" s="66"/>
-      <c r="R33" s="66"/>
-      <c r="S33" s="66"/>
-      <c r="T33" s="66"/>
-      <c r="U33" s="66"/>
-      <c r="V33" s="66"/>
-      <c r="W33" s="66"/>
-      <c r="X33" s="66"/>
-      <c r="Y33" s="66"/>
-      <c r="Z33" s="66"/>
-      <c r="AA33" s="66"/>
-      <c r="AB33" s="66"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="72"/>
+      <c r="P33" s="72"/>
+      <c r="Q33" s="72"/>
+      <c r="R33" s="72"/>
+      <c r="S33" s="72"/>
+      <c r="T33" s="72"/>
+      <c r="U33" s="72"/>
+      <c r="V33" s="72"/>
+      <c r="W33" s="72"/>
+      <c r="X33" s="72"/>
+      <c r="Y33" s="72"/>
+      <c r="Z33" s="72"/>
+      <c r="AA33" s="72"/>
+      <c r="AB33" s="72"/>
     </row>
     <row r="34" spans="1:28" s="3" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
@@ -12247,17 +12256,17 @@
       <c r="S34" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="T34" s="67" t="s">
+      <c r="T34" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="U34" s="67"/>
-      <c r="V34" s="67"/>
-      <c r="W34" s="67"/>
-      <c r="X34" s="67"/>
-      <c r="Y34" s="67"/>
-      <c r="Z34" s="67"/>
-      <c r="AA34" s="67"/>
-      <c r="AB34" s="67"/>
+      <c r="U34" s="75"/>
+      <c r="V34" s="75"/>
+      <c r="W34" s="75"/>
+      <c r="X34" s="75"/>
+      <c r="Y34" s="75"/>
+      <c r="Z34" s="75"/>
+      <c r="AA34" s="75"/>
+      <c r="AB34" s="75"/>
     </row>
     <row r="35" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
@@ -12302,15 +12311,15 @@
       <c r="Q35" s="15"/>
       <c r="R35" s="15"/>
       <c r="S35" s="15"/>
-      <c r="T35" s="55"/>
-      <c r="U35" s="56"/>
-      <c r="V35" s="56"/>
-      <c r="W35" s="56"/>
-      <c r="X35" s="56"/>
-      <c r="Y35" s="56"/>
-      <c r="Z35" s="56"/>
-      <c r="AA35" s="56"/>
-      <c r="AB35" s="57"/>
+      <c r="T35" s="67"/>
+      <c r="U35" s="68"/>
+      <c r="V35" s="68"/>
+      <c r="W35" s="68"/>
+      <c r="X35" s="68"/>
+      <c r="Y35" s="68"/>
+      <c r="Z35" s="68"/>
+      <c r="AA35" s="68"/>
+      <c r="AB35" s="69"/>
     </row>
     <row r="36" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
@@ -12356,15 +12365,15 @@
       <c r="Q36" s="15"/>
       <c r="R36" s="15"/>
       <c r="S36" s="15"/>
-      <c r="T36" s="55"/>
-      <c r="U36" s="56"/>
-      <c r="V36" s="56"/>
-      <c r="W36" s="56"/>
-      <c r="X36" s="56"/>
-      <c r="Y36" s="56"/>
-      <c r="Z36" s="56"/>
-      <c r="AA36" s="56"/>
-      <c r="AB36" s="57"/>
+      <c r="T36" s="67"/>
+      <c r="U36" s="68"/>
+      <c r="V36" s="68"/>
+      <c r="W36" s="68"/>
+      <c r="X36" s="68"/>
+      <c r="Y36" s="68"/>
+      <c r="Z36" s="68"/>
+      <c r="AA36" s="68"/>
+      <c r="AB36" s="69"/>
     </row>
     <row r="37" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
@@ -12410,15 +12419,15 @@
       <c r="Q37" s="15"/>
       <c r="R37" s="15"/>
       <c r="S37" s="15"/>
-      <c r="T37" s="55"/>
-      <c r="U37" s="56"/>
-      <c r="V37" s="56"/>
-      <c r="W37" s="56"/>
-      <c r="X37" s="56"/>
-      <c r="Y37" s="56"/>
-      <c r="Z37" s="56"/>
-      <c r="AA37" s="56"/>
-      <c r="AB37" s="57"/>
+      <c r="T37" s="67"/>
+      <c r="U37" s="68"/>
+      <c r="V37" s="68"/>
+      <c r="W37" s="68"/>
+      <c r="X37" s="68"/>
+      <c r="Y37" s="68"/>
+      <c r="Z37" s="68"/>
+      <c r="AA37" s="68"/>
+      <c r="AB37" s="69"/>
     </row>
     <row r="38" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
@@ -12464,15 +12473,15 @@
       <c r="Q38" s="15"/>
       <c r="R38" s="15"/>
       <c r="S38" s="15"/>
-      <c r="T38" s="55"/>
-      <c r="U38" s="56"/>
-      <c r="V38" s="56"/>
-      <c r="W38" s="56"/>
-      <c r="X38" s="56"/>
-      <c r="Y38" s="56"/>
-      <c r="Z38" s="56"/>
-      <c r="AA38" s="56"/>
-      <c r="AB38" s="57"/>
+      <c r="T38" s="67"/>
+      <c r="U38" s="68"/>
+      <c r="V38" s="68"/>
+      <c r="W38" s="68"/>
+      <c r="X38" s="68"/>
+      <c r="Y38" s="68"/>
+      <c r="Z38" s="68"/>
+      <c r="AA38" s="68"/>
+      <c r="AB38" s="69"/>
     </row>
     <row r="39" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
@@ -12518,15 +12527,15 @@
       <c r="Q39" s="15"/>
       <c r="R39" s="15"/>
       <c r="S39" s="15"/>
-      <c r="T39" s="55"/>
-      <c r="U39" s="56"/>
-      <c r="V39" s="56"/>
-      <c r="W39" s="56"/>
-      <c r="X39" s="56"/>
-      <c r="Y39" s="56"/>
-      <c r="Z39" s="56"/>
-      <c r="AA39" s="56"/>
-      <c r="AB39" s="57"/>
+      <c r="T39" s="67"/>
+      <c r="U39" s="68"/>
+      <c r="V39" s="68"/>
+      <c r="W39" s="68"/>
+      <c r="X39" s="68"/>
+      <c r="Y39" s="68"/>
+      <c r="Z39" s="68"/>
+      <c r="AA39" s="68"/>
+      <c r="AB39" s="69"/>
     </row>
     <row r="40" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
@@ -12572,15 +12581,15 @@
       <c r="Q40" s="15"/>
       <c r="R40" s="15"/>
       <c r="S40" s="15"/>
-      <c r="T40" s="55"/>
-      <c r="U40" s="56"/>
-      <c r="V40" s="56"/>
-      <c r="W40" s="56"/>
-      <c r="X40" s="56"/>
-      <c r="Y40" s="56"/>
-      <c r="Z40" s="56"/>
-      <c r="AA40" s="56"/>
-      <c r="AB40" s="57"/>
+      <c r="T40" s="67"/>
+      <c r="U40" s="68"/>
+      <c r="V40" s="68"/>
+      <c r="W40" s="68"/>
+      <c r="X40" s="68"/>
+      <c r="Y40" s="68"/>
+      <c r="Z40" s="68"/>
+      <c r="AA40" s="68"/>
+      <c r="AB40" s="69"/>
     </row>
     <row r="41" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8">
@@ -12626,15 +12635,15 @@
       <c r="Q41" s="15"/>
       <c r="R41" s="15"/>
       <c r="S41" s="15"/>
-      <c r="T41" s="55"/>
-      <c r="U41" s="56"/>
-      <c r="V41" s="56"/>
-      <c r="W41" s="56"/>
-      <c r="X41" s="56"/>
-      <c r="Y41" s="56"/>
-      <c r="Z41" s="56"/>
-      <c r="AA41" s="56"/>
-      <c r="AB41" s="57"/>
+      <c r="T41" s="67"/>
+      <c r="U41" s="68"/>
+      <c r="V41" s="68"/>
+      <c r="W41" s="68"/>
+      <c r="X41" s="68"/>
+      <c r="Y41" s="68"/>
+      <c r="Z41" s="68"/>
+      <c r="AA41" s="68"/>
+      <c r="AB41" s="69"/>
     </row>
     <row r="42" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="8">
@@ -12680,15 +12689,15 @@
       <c r="Q42" s="15"/>
       <c r="R42" s="15"/>
       <c r="S42" s="15"/>
-      <c r="T42" s="55"/>
-      <c r="U42" s="56"/>
-      <c r="V42" s="56"/>
-      <c r="W42" s="56"/>
-      <c r="X42" s="56"/>
-      <c r="Y42" s="56"/>
-      <c r="Z42" s="56"/>
-      <c r="AA42" s="56"/>
-      <c r="AB42" s="57"/>
+      <c r="T42" s="67"/>
+      <c r="U42" s="68"/>
+      <c r="V42" s="68"/>
+      <c r="W42" s="68"/>
+      <c r="X42" s="68"/>
+      <c r="Y42" s="68"/>
+      <c r="Z42" s="68"/>
+      <c r="AA42" s="68"/>
+      <c r="AB42" s="69"/>
     </row>
     <row r="43" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="8">
@@ -12734,15 +12743,15 @@
       <c r="Q43" s="15"/>
       <c r="R43" s="15"/>
       <c r="S43" s="15"/>
-      <c r="T43" s="55"/>
-      <c r="U43" s="56"/>
-      <c r="V43" s="56"/>
-      <c r="W43" s="56"/>
-      <c r="X43" s="56"/>
-      <c r="Y43" s="56"/>
-      <c r="Z43" s="56"/>
-      <c r="AA43" s="56"/>
-      <c r="AB43" s="57"/>
+      <c r="T43" s="67"/>
+      <c r="U43" s="68"/>
+      <c r="V43" s="68"/>
+      <c r="W43" s="68"/>
+      <c r="X43" s="68"/>
+      <c r="Y43" s="68"/>
+      <c r="Z43" s="68"/>
+      <c r="AA43" s="68"/>
+      <c r="AB43" s="69"/>
     </row>
     <row r="44" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="8">
@@ -12788,15 +12797,15 @@
       <c r="Q44" s="15"/>
       <c r="R44" s="15"/>
       <c r="S44" s="15"/>
-      <c r="T44" s="55"/>
-      <c r="U44" s="56"/>
-      <c r="V44" s="56"/>
-      <c r="W44" s="56"/>
-      <c r="X44" s="56"/>
-      <c r="Y44" s="56"/>
-      <c r="Z44" s="56"/>
-      <c r="AA44" s="56"/>
-      <c r="AB44" s="57"/>
+      <c r="T44" s="67"/>
+      <c r="U44" s="68"/>
+      <c r="V44" s="68"/>
+      <c r="W44" s="68"/>
+      <c r="X44" s="68"/>
+      <c r="Y44" s="68"/>
+      <c r="Z44" s="68"/>
+      <c r="AA44" s="68"/>
+      <c r="AB44" s="69"/>
     </row>
     <row r="45" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="8">
@@ -12842,15 +12851,15 @@
       <c r="Q45" s="15"/>
       <c r="R45" s="15"/>
       <c r="S45" s="15"/>
-      <c r="T45" s="55"/>
-      <c r="U45" s="56"/>
-      <c r="V45" s="56"/>
-      <c r="W45" s="56"/>
-      <c r="X45" s="56"/>
-      <c r="Y45" s="56"/>
-      <c r="Z45" s="56"/>
-      <c r="AA45" s="56"/>
-      <c r="AB45" s="57"/>
+      <c r="T45" s="67"/>
+      <c r="U45" s="68"/>
+      <c r="V45" s="68"/>
+      <c r="W45" s="68"/>
+      <c r="X45" s="68"/>
+      <c r="Y45" s="68"/>
+      <c r="Z45" s="68"/>
+      <c r="AA45" s="68"/>
+      <c r="AB45" s="69"/>
     </row>
     <row r="46" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="8">
@@ -12896,15 +12905,15 @@
       <c r="Q46" s="15"/>
       <c r="R46" s="15"/>
       <c r="S46" s="15"/>
-      <c r="T46" s="55"/>
-      <c r="U46" s="56"/>
-      <c r="V46" s="56"/>
-      <c r="W46" s="56"/>
-      <c r="X46" s="56"/>
-      <c r="Y46" s="56"/>
-      <c r="Z46" s="56"/>
-      <c r="AA46" s="56"/>
-      <c r="AB46" s="57"/>
+      <c r="T46" s="67"/>
+      <c r="U46" s="68"/>
+      <c r="V46" s="68"/>
+      <c r="W46" s="68"/>
+      <c r="X46" s="68"/>
+      <c r="Y46" s="68"/>
+      <c r="Z46" s="68"/>
+      <c r="AA46" s="68"/>
+      <c r="AB46" s="69"/>
     </row>
     <row r="47" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="8">
@@ -12950,15 +12959,15 @@
       <c r="Q47" s="15"/>
       <c r="R47" s="15"/>
       <c r="S47" s="15"/>
-      <c r="T47" s="55"/>
-      <c r="U47" s="56"/>
-      <c r="V47" s="56"/>
-      <c r="W47" s="56"/>
-      <c r="X47" s="56"/>
-      <c r="Y47" s="56"/>
-      <c r="Z47" s="56"/>
-      <c r="AA47" s="56"/>
-      <c r="AB47" s="57"/>
+      <c r="T47" s="67"/>
+      <c r="U47" s="68"/>
+      <c r="V47" s="68"/>
+      <c r="W47" s="68"/>
+      <c r="X47" s="68"/>
+      <c r="Y47" s="68"/>
+      <c r="Z47" s="68"/>
+      <c r="AA47" s="68"/>
+      <c r="AB47" s="69"/>
     </row>
     <row r="48" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="8">
@@ -13004,15 +13013,15 @@
       <c r="Q48" s="15"/>
       <c r="R48" s="15"/>
       <c r="S48" s="15"/>
-      <c r="T48" s="55"/>
-      <c r="U48" s="56"/>
-      <c r="V48" s="56"/>
-      <c r="W48" s="56"/>
-      <c r="X48" s="56"/>
-      <c r="Y48" s="56"/>
-      <c r="Z48" s="56"/>
-      <c r="AA48" s="56"/>
-      <c r="AB48" s="57"/>
+      <c r="T48" s="67"/>
+      <c r="U48" s="68"/>
+      <c r="V48" s="68"/>
+      <c r="W48" s="68"/>
+      <c r="X48" s="68"/>
+      <c r="Y48" s="68"/>
+      <c r="Z48" s="68"/>
+      <c r="AA48" s="68"/>
+      <c r="AB48" s="69"/>
     </row>
     <row r="49" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="8">
@@ -13058,15 +13067,15 @@
       <c r="Q49" s="15"/>
       <c r="R49" s="15"/>
       <c r="S49" s="15"/>
-      <c r="T49" s="55"/>
-      <c r="U49" s="56"/>
-      <c r="V49" s="56"/>
-      <c r="W49" s="56"/>
-      <c r="X49" s="56"/>
-      <c r="Y49" s="56"/>
-      <c r="Z49" s="56"/>
-      <c r="AA49" s="56"/>
-      <c r="AB49" s="57"/>
+      <c r="T49" s="67"/>
+      <c r="U49" s="68"/>
+      <c r="V49" s="68"/>
+      <c r="W49" s="68"/>
+      <c r="X49" s="68"/>
+      <c r="Y49" s="68"/>
+      <c r="Z49" s="68"/>
+      <c r="AA49" s="68"/>
+      <c r="AB49" s="69"/>
     </row>
     <row r="50" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
@@ -13076,9 +13085,9 @@
       <c r="Q50" s="4"/>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="P51" s="54"/>
-      <c r="Q51" s="54"/>
-      <c r="R51" s="54"/>
+      <c r="P51" s="70"/>
+      <c r="Q51" s="70"/>
+      <c r="R51" s="70"/>
     </row>
     <row r="53" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="35"/>
@@ -13117,10 +13126,10 @@
     </row>
     <row r="58" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="35"/>
-      <c r="B58" s="52" t="s">
+      <c r="B58" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="52"/>
+      <c r="C58" s="77"/>
       <c r="D58" s="36"/>
       <c r="F58" s="37" t="s">
         <v>79</v>
@@ -13810,42 +13819,11 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="B7:AB7"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="T36:AB36"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="B16:AB16"/>
-    <mergeCell ref="B33:AB33"/>
-    <mergeCell ref="T34:AB34"/>
-    <mergeCell ref="T35:AB35"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="T40:AB40"/>
+    <mergeCell ref="T39:AB39"/>
+    <mergeCell ref="T38:AB38"/>
     <mergeCell ref="T37:AB37"/>
     <mergeCell ref="T49:AB49"/>
     <mergeCell ref="T48:AB48"/>
@@ -13856,11 +13834,42 @@
     <mergeCell ref="T43:AB43"/>
     <mergeCell ref="T42:AB42"/>
     <mergeCell ref="T41:AB41"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="T40:AB40"/>
-    <mergeCell ref="T39:AB39"/>
-    <mergeCell ref="T38:AB38"/>
+    <mergeCell ref="T36:AB36"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="B16:AB16"/>
+    <mergeCell ref="B33:AB33"/>
+    <mergeCell ref="T34:AB34"/>
+    <mergeCell ref="T35:AB35"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="B7:AB7"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:W9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R14" xr:uid="{00000000-0002-0000-0300-000003000000}">
@@ -13915,25 +13924,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="I2" s="75" t="s">
+      <c r="I2" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="19"/>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
     </row>
     <row r="3" spans="1:28" ht="15" x14ac:dyDescent="0.15">
-      <c r="I3" s="75" t="s">
+      <c r="I3" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="19"/>
       <c r="O3" s="19"/>
       <c r="P3" s="19"/>
@@ -13951,48 +13960,48 @@
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="I4" s="75" t="s">
+      <c r="I4" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
       <c r="N4" s="19"/>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
     </row>
     <row r="7" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="80"/>
-      <c r="S7" s="80"/>
-      <c r="T7" s="80"/>
-      <c r="U7" s="80"/>
-      <c r="V7" s="80"/>
-      <c r="W7" s="80"/>
-      <c r="X7" s="80"/>
-      <c r="Y7" s="80"/>
-      <c r="Z7" s="80"/>
-      <c r="AA7" s="80"/>
-      <c r="AB7" s="80"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="60"/>
+      <c r="W7" s="60"/>
+      <c r="X7" s="60"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="60"/>
+      <c r="AB7" s="60"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B8" s="25"/>
@@ -14009,8 +14018,8 @@
         <v>1899-12-30</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -14018,33 +14027,33 @@
       <c r="K9" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L9" s="61" t="str">
+      <c r="L9" s="54" t="str">
         <f>'PAGE 1 OF'!L9:M9</f>
         <v>CENTURYLINK</v>
       </c>
-      <c r="M9" s="61"/>
-      <c r="Q9" s="64" t="s">
+      <c r="M9" s="54"/>
+      <c r="Q9" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="77"/>
-      <c r="V9" s="77"/>
-      <c r="W9" s="78"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="57"/>
     </row>
     <row r="10" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="61">
+      <c r="C10" s="62"/>
+      <c r="D10" s="54">
         <f>'PAGE 1 OF'!D10:F10</f>
         <v>0</v>
       </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -14052,16 +14061,16 @@
       <c r="K10" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="L10" s="61">
+      <c r="L10" s="54">
         <f>'PAGE 1 OF'!L10:M10</f>
         <v>0</v>
       </c>
-      <c r="M10" s="61"/>
-      <c r="Q10" s="64" t="s">
+      <c r="M10" s="54"/>
+      <c r="Q10" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="R10" s="64"/>
-      <c r="S10" s="64"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
       <c r="T10" s="53" t="s">
         <v>18</v>
       </c>
@@ -14074,16 +14083,16 @@
     </row>
     <row r="11" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="61">
+      <c r="C11" s="62"/>
+      <c r="D11" s="54">
         <f>'PAGE 1 OF'!D11:F11</f>
         <v>0</v>
       </c>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -14091,16 +14100,16 @@
       <c r="K11" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="L11" s="61">
+      <c r="L11" s="54">
         <f>'PAGE 1 OF'!L11:M11</f>
         <v>0</v>
       </c>
-      <c r="M11" s="61"/>
-      <c r="Q11" s="64" t="s">
+      <c r="M11" s="54"/>
+      <c r="Q11" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="R11" s="64"/>
-      <c r="S11" s="64"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
       <c r="T11" s="53" t="s">
         <v>18</v>
       </c>
@@ -14113,16 +14122,16 @@
     </row>
     <row r="12" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="61">
+      <c r="C12" s="62"/>
+      <c r="D12" s="54">
         <f>'PAGE 1 OF'!D12:F12</f>
         <v>0</v>
       </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -14130,16 +14139,16 @@
       <c r="K12" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="L12" s="61">
+      <c r="L12" s="54">
         <f>'PAGE 1 OF'!L12:M12</f>
         <v>0</v>
       </c>
-      <c r="M12" s="61"/>
-      <c r="Q12" s="64" t="s">
+      <c r="M12" s="54"/>
+      <c r="Q12" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="R12" s="64"/>
-      <c r="S12" s="64"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
       <c r="T12" s="53" t="s">
         <v>18</v>
       </c>
@@ -14152,16 +14161,16 @@
     </row>
     <row r="13" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="61">
+      <c r="C13" s="76"/>
+      <c r="D13" s="54">
         <f>'PAGE 1 OF'!D13:F13</f>
         <v>0</v>
       </c>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
       <c r="I13" s="5"/>
@@ -14169,16 +14178,16 @@
       <c r="K13" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="61">
+      <c r="L13" s="54">
         <f>'PAGE 1 OF'!L13:M13</f>
         <v>0</v>
       </c>
-      <c r="M13" s="61"/>
-      <c r="Q13" s="64" t="s">
+      <c r="M13" s="54"/>
+      <c r="Q13" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="R13" s="64"/>
-      <c r="S13" s="64"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
       <c r="T13" s="53" t="s">
         <v>18</v>
       </c>
@@ -14191,16 +14200,16 @@
     </row>
     <row r="14" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="61">
+      <c r="C14" s="65"/>
+      <c r="D14" s="54">
         <f>'PAGE 1 OF'!D14:F14</f>
         <v>0</v>
       </c>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -14208,11 +14217,11 @@
       <c r="K14" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="61">
+      <c r="L14" s="54">
         <f>'PAGE 1 OF'!L14:M14</f>
         <v>0</v>
       </c>
-      <c r="M14" s="61"/>
+      <c r="M14" s="54"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B15" s="26"/>
@@ -14228,35 +14237,35 @@
     </row>
     <row r="16" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="8"/>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="72"/>
-      <c r="V16" s="72"/>
-      <c r="W16" s="72"/>
-      <c r="X16" s="72"/>
-      <c r="Y16" s="72"/>
-      <c r="Z16" s="72"/>
-      <c r="AA16" s="72"/>
-      <c r="AB16" s="72"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="64"/>
+      <c r="X16" s="64"/>
+      <c r="Y16" s="64"/>
+      <c r="Z16" s="64"/>
+      <c r="AA16" s="64"/>
+      <c r="AB16" s="64"/>
     </row>
     <row r="17" spans="1:28" s="3" customFormat="1" ht="70" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
@@ -14843,35 +14852,35 @@
     </row>
     <row r="33" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="66"/>
-      <c r="P33" s="66"/>
-      <c r="Q33" s="66"/>
-      <c r="R33" s="66"/>
-      <c r="S33" s="66"/>
-      <c r="T33" s="66"/>
-      <c r="U33" s="66"/>
-      <c r="V33" s="66"/>
-      <c r="W33" s="66"/>
-      <c r="X33" s="66"/>
-      <c r="Y33" s="66"/>
-      <c r="Z33" s="66"/>
-      <c r="AA33" s="66"/>
-      <c r="AB33" s="66"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="72"/>
+      <c r="P33" s="72"/>
+      <c r="Q33" s="72"/>
+      <c r="R33" s="72"/>
+      <c r="S33" s="72"/>
+      <c r="T33" s="72"/>
+      <c r="U33" s="72"/>
+      <c r="V33" s="72"/>
+      <c r="W33" s="72"/>
+      <c r="X33" s="72"/>
+      <c r="Y33" s="72"/>
+      <c r="Z33" s="72"/>
+      <c r="AA33" s="72"/>
+      <c r="AB33" s="72"/>
     </row>
     <row r="34" spans="1:28" s="3" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
@@ -14935,17 +14944,17 @@
       <c r="S34" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="T34" s="67" t="s">
+      <c r="T34" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="U34" s="67"/>
-      <c r="V34" s="67"/>
-      <c r="W34" s="67"/>
-      <c r="X34" s="67"/>
-      <c r="Y34" s="67"/>
-      <c r="Z34" s="67"/>
-      <c r="AA34" s="67"/>
-      <c r="AB34" s="67"/>
+      <c r="U34" s="75"/>
+      <c r="V34" s="75"/>
+      <c r="W34" s="75"/>
+      <c r="X34" s="75"/>
+      <c r="Y34" s="75"/>
+      <c r="Z34" s="75"/>
+      <c r="AA34" s="75"/>
+      <c r="AB34" s="75"/>
     </row>
     <row r="35" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
@@ -14990,15 +14999,15 @@
       <c r="Q35" s="15"/>
       <c r="R35" s="15"/>
       <c r="S35" s="15"/>
-      <c r="T35" s="55"/>
-      <c r="U35" s="56"/>
-      <c r="V35" s="56"/>
-      <c r="W35" s="56"/>
-      <c r="X35" s="56"/>
-      <c r="Y35" s="56"/>
-      <c r="Z35" s="56"/>
-      <c r="AA35" s="56"/>
-      <c r="AB35" s="57"/>
+      <c r="T35" s="67"/>
+      <c r="U35" s="68"/>
+      <c r="V35" s="68"/>
+      <c r="W35" s="68"/>
+      <c r="X35" s="68"/>
+      <c r="Y35" s="68"/>
+      <c r="Z35" s="68"/>
+      <c r="AA35" s="68"/>
+      <c r="AB35" s="69"/>
     </row>
     <row r="36" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
@@ -15044,15 +15053,15 @@
       <c r="Q36" s="15"/>
       <c r="R36" s="15"/>
       <c r="S36" s="15"/>
-      <c r="T36" s="55"/>
-      <c r="U36" s="56"/>
-      <c r="V36" s="56"/>
-      <c r="W36" s="56"/>
-      <c r="X36" s="56"/>
-      <c r="Y36" s="56"/>
-      <c r="Z36" s="56"/>
-      <c r="AA36" s="56"/>
-      <c r="AB36" s="57"/>
+      <c r="T36" s="67"/>
+      <c r="U36" s="68"/>
+      <c r="V36" s="68"/>
+      <c r="W36" s="68"/>
+      <c r="X36" s="68"/>
+      <c r="Y36" s="68"/>
+      <c r="Z36" s="68"/>
+      <c r="AA36" s="68"/>
+      <c r="AB36" s="69"/>
     </row>
     <row r="37" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
@@ -15098,15 +15107,15 @@
       <c r="Q37" s="15"/>
       <c r="R37" s="15"/>
       <c r="S37" s="15"/>
-      <c r="T37" s="55"/>
-      <c r="U37" s="56"/>
-      <c r="V37" s="56"/>
-      <c r="W37" s="56"/>
-      <c r="X37" s="56"/>
-      <c r="Y37" s="56"/>
-      <c r="Z37" s="56"/>
-      <c r="AA37" s="56"/>
-      <c r="AB37" s="57"/>
+      <c r="T37" s="67"/>
+      <c r="U37" s="68"/>
+      <c r="V37" s="68"/>
+      <c r="W37" s="68"/>
+      <c r="X37" s="68"/>
+      <c r="Y37" s="68"/>
+      <c r="Z37" s="68"/>
+      <c r="AA37" s="68"/>
+      <c r="AB37" s="69"/>
     </row>
     <row r="38" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
@@ -15152,15 +15161,15 @@
       <c r="Q38" s="15"/>
       <c r="R38" s="15"/>
       <c r="S38" s="15"/>
-      <c r="T38" s="55"/>
-      <c r="U38" s="56"/>
-      <c r="V38" s="56"/>
-      <c r="W38" s="56"/>
-      <c r="X38" s="56"/>
-      <c r="Y38" s="56"/>
-      <c r="Z38" s="56"/>
-      <c r="AA38" s="56"/>
-      <c r="AB38" s="57"/>
+      <c r="T38" s="67"/>
+      <c r="U38" s="68"/>
+      <c r="V38" s="68"/>
+      <c r="W38" s="68"/>
+      <c r="X38" s="68"/>
+      <c r="Y38" s="68"/>
+      <c r="Z38" s="68"/>
+      <c r="AA38" s="68"/>
+      <c r="AB38" s="69"/>
     </row>
     <row r="39" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
@@ -15206,15 +15215,15 @@
       <c r="Q39" s="15"/>
       <c r="R39" s="15"/>
       <c r="S39" s="15"/>
-      <c r="T39" s="55"/>
-      <c r="U39" s="56"/>
-      <c r="V39" s="56"/>
-      <c r="W39" s="56"/>
-      <c r="X39" s="56"/>
-      <c r="Y39" s="56"/>
-      <c r="Z39" s="56"/>
-      <c r="AA39" s="56"/>
-      <c r="AB39" s="57"/>
+      <c r="T39" s="67"/>
+      <c r="U39" s="68"/>
+      <c r="V39" s="68"/>
+      <c r="W39" s="68"/>
+      <c r="X39" s="68"/>
+      <c r="Y39" s="68"/>
+      <c r="Z39" s="68"/>
+      <c r="AA39" s="68"/>
+      <c r="AB39" s="69"/>
     </row>
     <row r="40" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
@@ -15260,15 +15269,15 @@
       <c r="Q40" s="15"/>
       <c r="R40" s="15"/>
       <c r="S40" s="15"/>
-      <c r="T40" s="55"/>
-      <c r="U40" s="56"/>
-      <c r="V40" s="56"/>
-      <c r="W40" s="56"/>
-      <c r="X40" s="56"/>
-      <c r="Y40" s="56"/>
-      <c r="Z40" s="56"/>
-      <c r="AA40" s="56"/>
-      <c r="AB40" s="57"/>
+      <c r="T40" s="67"/>
+      <c r="U40" s="68"/>
+      <c r="V40" s="68"/>
+      <c r="W40" s="68"/>
+      <c r="X40" s="68"/>
+      <c r="Y40" s="68"/>
+      <c r="Z40" s="68"/>
+      <c r="AA40" s="68"/>
+      <c r="AB40" s="69"/>
     </row>
     <row r="41" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8">
@@ -15314,15 +15323,15 @@
       <c r="Q41" s="15"/>
       <c r="R41" s="15"/>
       <c r="S41" s="15"/>
-      <c r="T41" s="55"/>
-      <c r="U41" s="56"/>
-      <c r="V41" s="56"/>
-      <c r="W41" s="56"/>
-      <c r="X41" s="56"/>
-      <c r="Y41" s="56"/>
-      <c r="Z41" s="56"/>
-      <c r="AA41" s="56"/>
-      <c r="AB41" s="57"/>
+      <c r="T41" s="67"/>
+      <c r="U41" s="68"/>
+      <c r="V41" s="68"/>
+      <c r="W41" s="68"/>
+      <c r="X41" s="68"/>
+      <c r="Y41" s="68"/>
+      <c r="Z41" s="68"/>
+      <c r="AA41" s="68"/>
+      <c r="AB41" s="69"/>
     </row>
     <row r="42" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="8">
@@ -15368,15 +15377,15 @@
       <c r="Q42" s="15"/>
       <c r="R42" s="15"/>
       <c r="S42" s="15"/>
-      <c r="T42" s="55"/>
-      <c r="U42" s="56"/>
-      <c r="V42" s="56"/>
-      <c r="W42" s="56"/>
-      <c r="X42" s="56"/>
-      <c r="Y42" s="56"/>
-      <c r="Z42" s="56"/>
-      <c r="AA42" s="56"/>
-      <c r="AB42" s="57"/>
+      <c r="T42" s="67"/>
+      <c r="U42" s="68"/>
+      <c r="V42" s="68"/>
+      <c r="W42" s="68"/>
+      <c r="X42" s="68"/>
+      <c r="Y42" s="68"/>
+      <c r="Z42" s="68"/>
+      <c r="AA42" s="68"/>
+      <c r="AB42" s="69"/>
     </row>
     <row r="43" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="8">
@@ -15422,15 +15431,15 @@
       <c r="Q43" s="15"/>
       <c r="R43" s="15"/>
       <c r="S43" s="15"/>
-      <c r="T43" s="55"/>
-      <c r="U43" s="56"/>
-      <c r="V43" s="56"/>
-      <c r="W43" s="56"/>
-      <c r="X43" s="56"/>
-      <c r="Y43" s="56"/>
-      <c r="Z43" s="56"/>
-      <c r="AA43" s="56"/>
-      <c r="AB43" s="57"/>
+      <c r="T43" s="67"/>
+      <c r="U43" s="68"/>
+      <c r="V43" s="68"/>
+      <c r="W43" s="68"/>
+      <c r="X43" s="68"/>
+      <c r="Y43" s="68"/>
+      <c r="Z43" s="68"/>
+      <c r="AA43" s="68"/>
+      <c r="AB43" s="69"/>
     </row>
     <row r="44" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="8">
@@ -15476,15 +15485,15 @@
       <c r="Q44" s="15"/>
       <c r="R44" s="15"/>
       <c r="S44" s="15"/>
-      <c r="T44" s="55"/>
-      <c r="U44" s="56"/>
-      <c r="V44" s="56"/>
-      <c r="W44" s="56"/>
-      <c r="X44" s="56"/>
-      <c r="Y44" s="56"/>
-      <c r="Z44" s="56"/>
-      <c r="AA44" s="56"/>
-      <c r="AB44" s="57"/>
+      <c r="T44" s="67"/>
+      <c r="U44" s="68"/>
+      <c r="V44" s="68"/>
+      <c r="W44" s="68"/>
+      <c r="X44" s="68"/>
+      <c r="Y44" s="68"/>
+      <c r="Z44" s="68"/>
+      <c r="AA44" s="68"/>
+      <c r="AB44" s="69"/>
     </row>
     <row r="45" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="8">
@@ -15530,15 +15539,15 @@
       <c r="Q45" s="15"/>
       <c r="R45" s="15"/>
       <c r="S45" s="15"/>
-      <c r="T45" s="55"/>
-      <c r="U45" s="56"/>
-      <c r="V45" s="56"/>
-      <c r="W45" s="56"/>
-      <c r="X45" s="56"/>
-      <c r="Y45" s="56"/>
-      <c r="Z45" s="56"/>
-      <c r="AA45" s="56"/>
-      <c r="AB45" s="57"/>
+      <c r="T45" s="67"/>
+      <c r="U45" s="68"/>
+      <c r="V45" s="68"/>
+      <c r="W45" s="68"/>
+      <c r="X45" s="68"/>
+      <c r="Y45" s="68"/>
+      <c r="Z45" s="68"/>
+      <c r="AA45" s="68"/>
+      <c r="AB45" s="69"/>
     </row>
     <row r="46" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="8">
@@ -15584,15 +15593,15 @@
       <c r="Q46" s="15"/>
       <c r="R46" s="15"/>
       <c r="S46" s="15"/>
-      <c r="T46" s="55"/>
-      <c r="U46" s="56"/>
-      <c r="V46" s="56"/>
-      <c r="W46" s="56"/>
-      <c r="X46" s="56"/>
-      <c r="Y46" s="56"/>
-      <c r="Z46" s="56"/>
-      <c r="AA46" s="56"/>
-      <c r="AB46" s="57"/>
+      <c r="T46" s="67"/>
+      <c r="U46" s="68"/>
+      <c r="V46" s="68"/>
+      <c r="W46" s="68"/>
+      <c r="X46" s="68"/>
+      <c r="Y46" s="68"/>
+      <c r="Z46" s="68"/>
+      <c r="AA46" s="68"/>
+      <c r="AB46" s="69"/>
     </row>
     <row r="47" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="8">
@@ -15638,15 +15647,15 @@
       <c r="Q47" s="15"/>
       <c r="R47" s="15"/>
       <c r="S47" s="15"/>
-      <c r="T47" s="55"/>
-      <c r="U47" s="56"/>
-      <c r="V47" s="56"/>
-      <c r="W47" s="56"/>
-      <c r="X47" s="56"/>
-      <c r="Y47" s="56"/>
-      <c r="Z47" s="56"/>
-      <c r="AA47" s="56"/>
-      <c r="AB47" s="57"/>
+      <c r="T47" s="67"/>
+      <c r="U47" s="68"/>
+      <c r="V47" s="68"/>
+      <c r="W47" s="68"/>
+      <c r="X47" s="68"/>
+      <c r="Y47" s="68"/>
+      <c r="Z47" s="68"/>
+      <c r="AA47" s="68"/>
+      <c r="AB47" s="69"/>
     </row>
     <row r="48" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="8">
@@ -15692,15 +15701,15 @@
       <c r="Q48" s="15"/>
       <c r="R48" s="15"/>
       <c r="S48" s="15"/>
-      <c r="T48" s="55"/>
-      <c r="U48" s="56"/>
-      <c r="V48" s="56"/>
-      <c r="W48" s="56"/>
-      <c r="X48" s="56"/>
-      <c r="Y48" s="56"/>
-      <c r="Z48" s="56"/>
-      <c r="AA48" s="56"/>
-      <c r="AB48" s="57"/>
+      <c r="T48" s="67"/>
+      <c r="U48" s="68"/>
+      <c r="V48" s="68"/>
+      <c r="W48" s="68"/>
+      <c r="X48" s="68"/>
+      <c r="Y48" s="68"/>
+      <c r="Z48" s="68"/>
+      <c r="AA48" s="68"/>
+      <c r="AB48" s="69"/>
     </row>
     <row r="49" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="8">
@@ -15746,15 +15755,15 @@
       <c r="Q49" s="15"/>
       <c r="R49" s="15"/>
       <c r="S49" s="15"/>
-      <c r="T49" s="55"/>
-      <c r="U49" s="56"/>
-      <c r="V49" s="56"/>
-      <c r="W49" s="56"/>
-      <c r="X49" s="56"/>
-      <c r="Y49" s="56"/>
-      <c r="Z49" s="56"/>
-      <c r="AA49" s="56"/>
-      <c r="AB49" s="57"/>
+      <c r="T49" s="67"/>
+      <c r="U49" s="68"/>
+      <c r="V49" s="68"/>
+      <c r="W49" s="68"/>
+      <c r="X49" s="68"/>
+      <c r="Y49" s="68"/>
+      <c r="Z49" s="68"/>
+      <c r="AA49" s="68"/>
+      <c r="AB49" s="69"/>
     </row>
     <row r="50" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
@@ -15764,9 +15773,9 @@
       <c r="Q50" s="4"/>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="P51" s="54"/>
-      <c r="Q51" s="54"/>
-      <c r="R51" s="54"/>
+      <c r="P51" s="70"/>
+      <c r="Q51" s="70"/>
+      <c r="R51" s="70"/>
     </row>
     <row r="53" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="35"/>
@@ -15805,10 +15814,10 @@
     </row>
     <row r="58" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="35"/>
-      <c r="B58" s="52" t="s">
+      <c r="B58" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="52"/>
+      <c r="C58" s="77"/>
       <c r="D58" s="36"/>
       <c r="F58" s="37" t="s">
         <v>79</v>
@@ -16498,42 +16507,11 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="B7:AB7"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="T36:AB36"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="B16:AB16"/>
-    <mergeCell ref="B33:AB33"/>
-    <mergeCell ref="T34:AB34"/>
-    <mergeCell ref="T35:AB35"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="T40:AB40"/>
+    <mergeCell ref="T39:AB39"/>
+    <mergeCell ref="T38:AB38"/>
     <mergeCell ref="T37:AB37"/>
     <mergeCell ref="T49:AB49"/>
     <mergeCell ref="T48:AB48"/>
@@ -16544,11 +16522,42 @@
     <mergeCell ref="T43:AB43"/>
     <mergeCell ref="T42:AB42"/>
     <mergeCell ref="T41:AB41"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="T40:AB40"/>
-    <mergeCell ref="T39:AB39"/>
-    <mergeCell ref="T38:AB38"/>
+    <mergeCell ref="T36:AB36"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="B16:AB16"/>
+    <mergeCell ref="B33:AB33"/>
+    <mergeCell ref="T34:AB34"/>
+    <mergeCell ref="T35:AB35"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="B7:AB7"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:W9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R14" xr:uid="{00000000-0002-0000-0400-000003000000}">
@@ -16603,25 +16612,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="I2" s="75" t="s">
+      <c r="I2" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="19"/>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
     </row>
     <row r="3" spans="1:28" ht="15" x14ac:dyDescent="0.15">
-      <c r="I3" s="75" t="s">
+      <c r="I3" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="19"/>
       <c r="O3" s="19"/>
       <c r="P3" s="19"/>
@@ -16639,48 +16648,48 @@
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="I4" s="75" t="s">
+      <c r="I4" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
       <c r="N4" s="19"/>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
     </row>
     <row r="7" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="80"/>
-      <c r="S7" s="80"/>
-      <c r="T7" s="80"/>
-      <c r="U7" s="80"/>
-      <c r="V7" s="80"/>
-      <c r="W7" s="80"/>
-      <c r="X7" s="80"/>
-      <c r="Y7" s="80"/>
-      <c r="Z7" s="80"/>
-      <c r="AA7" s="80"/>
-      <c r="AB7" s="80"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="60"/>
+      <c r="W7" s="60"/>
+      <c r="X7" s="60"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="60"/>
+      <c r="AB7" s="60"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B8" s="25"/>
@@ -16697,8 +16706,8 @@
         <v>1899-12-30</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -16706,33 +16715,33 @@
       <c r="K9" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L9" s="61" t="str">
+      <c r="L9" s="54" t="str">
         <f>'PAGE 1 OF'!L9:M9</f>
         <v>CENTURYLINK</v>
       </c>
-      <c r="M9" s="61"/>
-      <c r="Q9" s="64" t="s">
+      <c r="M9" s="54"/>
+      <c r="Q9" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="77"/>
-      <c r="V9" s="77"/>
-      <c r="W9" s="78"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="57"/>
     </row>
     <row r="10" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="61">
+      <c r="C10" s="62"/>
+      <c r="D10" s="54">
         <f>'PAGE 1 OF'!D10:F10</f>
         <v>0</v>
       </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -16740,16 +16749,16 @@
       <c r="K10" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="L10" s="61">
+      <c r="L10" s="54">
         <f>'PAGE 1 OF'!L10:M10</f>
         <v>0</v>
       </c>
-      <c r="M10" s="61"/>
-      <c r="Q10" s="64" t="s">
+      <c r="M10" s="54"/>
+      <c r="Q10" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="R10" s="64"/>
-      <c r="S10" s="64"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
       <c r="T10" s="53" t="s">
         <v>18</v>
       </c>
@@ -16762,16 +16771,16 @@
     </row>
     <row r="11" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="61">
+      <c r="C11" s="62"/>
+      <c r="D11" s="54">
         <f>'PAGE 1 OF'!D11:F11</f>
         <v>0</v>
       </c>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -16779,16 +16788,16 @@
       <c r="K11" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="L11" s="61">
+      <c r="L11" s="54">
         <f>'PAGE 1 OF'!L11:M11</f>
         <v>0</v>
       </c>
-      <c r="M11" s="61"/>
-      <c r="Q11" s="64" t="s">
+      <c r="M11" s="54"/>
+      <c r="Q11" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="R11" s="64"/>
-      <c r="S11" s="64"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
       <c r="T11" s="53" t="s">
         <v>18</v>
       </c>
@@ -16801,16 +16810,16 @@
     </row>
     <row r="12" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="61">
+      <c r="C12" s="62"/>
+      <c r="D12" s="54">
         <f>'PAGE 1 OF'!D12:F12</f>
         <v>0</v>
       </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -16818,16 +16827,16 @@
       <c r="K12" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="L12" s="61">
+      <c r="L12" s="54">
         <f>'PAGE 1 OF'!L12:M12</f>
         <v>0</v>
       </c>
-      <c r="M12" s="61"/>
-      <c r="Q12" s="64" t="s">
+      <c r="M12" s="54"/>
+      <c r="Q12" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="R12" s="64"/>
-      <c r="S12" s="64"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
       <c r="T12" s="53" t="s">
         <v>18</v>
       </c>
@@ -16840,16 +16849,16 @@
     </row>
     <row r="13" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="61">
+      <c r="C13" s="76"/>
+      <c r="D13" s="54">
         <f>'PAGE 1 OF'!D13:F13</f>
         <v>0</v>
       </c>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
       <c r="I13" s="5"/>
@@ -16857,16 +16866,16 @@
       <c r="K13" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="61">
+      <c r="L13" s="54">
         <f>'PAGE 1 OF'!L13:M13</f>
         <v>0</v>
       </c>
-      <c r="M13" s="61"/>
-      <c r="Q13" s="64" t="s">
+      <c r="M13" s="54"/>
+      <c r="Q13" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="R13" s="64"/>
-      <c r="S13" s="64"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
       <c r="T13" s="53" t="s">
         <v>18</v>
       </c>
@@ -16879,16 +16888,16 @@
     </row>
     <row r="14" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="61">
+      <c r="C14" s="65"/>
+      <c r="D14" s="54">
         <f>'PAGE 1 OF'!D14:F14</f>
         <v>0</v>
       </c>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -16896,11 +16905,11 @@
       <c r="K14" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="61">
+      <c r="L14" s="54">
         <f>'PAGE 1 OF'!L14:M14</f>
         <v>0</v>
       </c>
-      <c r="M14" s="61"/>
+      <c r="M14" s="54"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B15" s="26"/>
@@ -16916,35 +16925,35 @@
     </row>
     <row r="16" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="8"/>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="72"/>
-      <c r="V16" s="72"/>
-      <c r="W16" s="72"/>
-      <c r="X16" s="72"/>
-      <c r="Y16" s="72"/>
-      <c r="Z16" s="72"/>
-      <c r="AA16" s="72"/>
-      <c r="AB16" s="72"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="64"/>
+      <c r="X16" s="64"/>
+      <c r="Y16" s="64"/>
+      <c r="Z16" s="64"/>
+      <c r="AA16" s="64"/>
+      <c r="AB16" s="64"/>
     </row>
     <row r="17" spans="1:28" s="3" customFormat="1" ht="70" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
@@ -17531,35 +17540,35 @@
     </row>
     <row r="33" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="66"/>
-      <c r="P33" s="66"/>
-      <c r="Q33" s="66"/>
-      <c r="R33" s="66"/>
-      <c r="S33" s="66"/>
-      <c r="T33" s="66"/>
-      <c r="U33" s="66"/>
-      <c r="V33" s="66"/>
-      <c r="W33" s="66"/>
-      <c r="X33" s="66"/>
-      <c r="Y33" s="66"/>
-      <c r="Z33" s="66"/>
-      <c r="AA33" s="66"/>
-      <c r="AB33" s="66"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="72"/>
+      <c r="P33" s="72"/>
+      <c r="Q33" s="72"/>
+      <c r="R33" s="72"/>
+      <c r="S33" s="72"/>
+      <c r="T33" s="72"/>
+      <c r="U33" s="72"/>
+      <c r="V33" s="72"/>
+      <c r="W33" s="72"/>
+      <c r="X33" s="72"/>
+      <c r="Y33" s="72"/>
+      <c r="Z33" s="72"/>
+      <c r="AA33" s="72"/>
+      <c r="AB33" s="72"/>
     </row>
     <row r="34" spans="1:28" s="3" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
@@ -17623,17 +17632,17 @@
       <c r="S34" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="T34" s="67" t="s">
+      <c r="T34" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="U34" s="67"/>
-      <c r="V34" s="67"/>
-      <c r="W34" s="67"/>
-      <c r="X34" s="67"/>
-      <c r="Y34" s="67"/>
-      <c r="Z34" s="67"/>
-      <c r="AA34" s="67"/>
-      <c r="AB34" s="67"/>
+      <c r="U34" s="75"/>
+      <c r="V34" s="75"/>
+      <c r="W34" s="75"/>
+      <c r="X34" s="75"/>
+      <c r="Y34" s="75"/>
+      <c r="Z34" s="75"/>
+      <c r="AA34" s="75"/>
+      <c r="AB34" s="75"/>
     </row>
     <row r="35" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
@@ -17678,15 +17687,15 @@
       <c r="Q35" s="15"/>
       <c r="R35" s="15"/>
       <c r="S35" s="15"/>
-      <c r="T35" s="55"/>
-      <c r="U35" s="56"/>
-      <c r="V35" s="56"/>
-      <c r="W35" s="56"/>
-      <c r="X35" s="56"/>
-      <c r="Y35" s="56"/>
-      <c r="Z35" s="56"/>
-      <c r="AA35" s="56"/>
-      <c r="AB35" s="57"/>
+      <c r="T35" s="67"/>
+      <c r="U35" s="68"/>
+      <c r="V35" s="68"/>
+      <c r="W35" s="68"/>
+      <c r="X35" s="68"/>
+      <c r="Y35" s="68"/>
+      <c r="Z35" s="68"/>
+      <c r="AA35" s="68"/>
+      <c r="AB35" s="69"/>
     </row>
     <row r="36" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
@@ -17732,15 +17741,15 @@
       <c r="Q36" s="15"/>
       <c r="R36" s="15"/>
       <c r="S36" s="15"/>
-      <c r="T36" s="55"/>
-      <c r="U36" s="56"/>
-      <c r="V36" s="56"/>
-      <c r="W36" s="56"/>
-      <c r="X36" s="56"/>
-      <c r="Y36" s="56"/>
-      <c r="Z36" s="56"/>
-      <c r="AA36" s="56"/>
-      <c r="AB36" s="57"/>
+      <c r="T36" s="67"/>
+      <c r="U36" s="68"/>
+      <c r="V36" s="68"/>
+      <c r="W36" s="68"/>
+      <c r="X36" s="68"/>
+      <c r="Y36" s="68"/>
+      <c r="Z36" s="68"/>
+      <c r="AA36" s="68"/>
+      <c r="AB36" s="69"/>
     </row>
     <row r="37" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
@@ -17786,15 +17795,15 @@
       <c r="Q37" s="15"/>
       <c r="R37" s="15"/>
       <c r="S37" s="15"/>
-      <c r="T37" s="55"/>
-      <c r="U37" s="56"/>
-      <c r="V37" s="56"/>
-      <c r="W37" s="56"/>
-      <c r="X37" s="56"/>
-      <c r="Y37" s="56"/>
-      <c r="Z37" s="56"/>
-      <c r="AA37" s="56"/>
-      <c r="AB37" s="57"/>
+      <c r="T37" s="67"/>
+      <c r="U37" s="68"/>
+      <c r="V37" s="68"/>
+      <c r="W37" s="68"/>
+      <c r="X37" s="68"/>
+      <c r="Y37" s="68"/>
+      <c r="Z37" s="68"/>
+      <c r="AA37" s="68"/>
+      <c r="AB37" s="69"/>
     </row>
     <row r="38" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
@@ -17840,15 +17849,15 @@
       <c r="Q38" s="15"/>
       <c r="R38" s="15"/>
       <c r="S38" s="15"/>
-      <c r="T38" s="55"/>
-      <c r="U38" s="56"/>
-      <c r="V38" s="56"/>
-      <c r="W38" s="56"/>
-      <c r="X38" s="56"/>
-      <c r="Y38" s="56"/>
-      <c r="Z38" s="56"/>
-      <c r="AA38" s="56"/>
-      <c r="AB38" s="57"/>
+      <c r="T38" s="67"/>
+      <c r="U38" s="68"/>
+      <c r="V38" s="68"/>
+      <c r="W38" s="68"/>
+      <c r="X38" s="68"/>
+      <c r="Y38" s="68"/>
+      <c r="Z38" s="68"/>
+      <c r="AA38" s="68"/>
+      <c r="AB38" s="69"/>
     </row>
     <row r="39" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
@@ -17894,15 +17903,15 @@
       <c r="Q39" s="15"/>
       <c r="R39" s="15"/>
       <c r="S39" s="15"/>
-      <c r="T39" s="55"/>
-      <c r="U39" s="56"/>
-      <c r="V39" s="56"/>
-      <c r="W39" s="56"/>
-      <c r="X39" s="56"/>
-      <c r="Y39" s="56"/>
-      <c r="Z39" s="56"/>
-      <c r="AA39" s="56"/>
-      <c r="AB39" s="57"/>
+      <c r="T39" s="67"/>
+      <c r="U39" s="68"/>
+      <c r="V39" s="68"/>
+      <c r="W39" s="68"/>
+      <c r="X39" s="68"/>
+      <c r="Y39" s="68"/>
+      <c r="Z39" s="68"/>
+      <c r="AA39" s="68"/>
+      <c r="AB39" s="69"/>
     </row>
     <row r="40" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
@@ -17948,15 +17957,15 @@
       <c r="Q40" s="15"/>
       <c r="R40" s="15"/>
       <c r="S40" s="15"/>
-      <c r="T40" s="55"/>
-      <c r="U40" s="56"/>
-      <c r="V40" s="56"/>
-      <c r="W40" s="56"/>
-      <c r="X40" s="56"/>
-      <c r="Y40" s="56"/>
-      <c r="Z40" s="56"/>
-      <c r="AA40" s="56"/>
-      <c r="AB40" s="57"/>
+      <c r="T40" s="67"/>
+      <c r="U40" s="68"/>
+      <c r="V40" s="68"/>
+      <c r="W40" s="68"/>
+      <c r="X40" s="68"/>
+      <c r="Y40" s="68"/>
+      <c r="Z40" s="68"/>
+      <c r="AA40" s="68"/>
+      <c r="AB40" s="69"/>
     </row>
     <row r="41" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8">
@@ -18002,15 +18011,15 @@
       <c r="Q41" s="15"/>
       <c r="R41" s="15"/>
       <c r="S41" s="15"/>
-      <c r="T41" s="55"/>
-      <c r="U41" s="56"/>
-      <c r="V41" s="56"/>
-      <c r="W41" s="56"/>
-      <c r="X41" s="56"/>
-      <c r="Y41" s="56"/>
-      <c r="Z41" s="56"/>
-      <c r="AA41" s="56"/>
-      <c r="AB41" s="57"/>
+      <c r="T41" s="67"/>
+      <c r="U41" s="68"/>
+      <c r="V41" s="68"/>
+      <c r="W41" s="68"/>
+      <c r="X41" s="68"/>
+      <c r="Y41" s="68"/>
+      <c r="Z41" s="68"/>
+      <c r="AA41" s="68"/>
+      <c r="AB41" s="69"/>
     </row>
     <row r="42" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="8">
@@ -18056,15 +18065,15 @@
       <c r="Q42" s="15"/>
       <c r="R42" s="15"/>
       <c r="S42" s="15"/>
-      <c r="T42" s="55"/>
-      <c r="U42" s="56"/>
-      <c r="V42" s="56"/>
-      <c r="W42" s="56"/>
-      <c r="X42" s="56"/>
-      <c r="Y42" s="56"/>
-      <c r="Z42" s="56"/>
-      <c r="AA42" s="56"/>
-      <c r="AB42" s="57"/>
+      <c r="T42" s="67"/>
+      <c r="U42" s="68"/>
+      <c r="V42" s="68"/>
+      <c r="W42" s="68"/>
+      <c r="X42" s="68"/>
+      <c r="Y42" s="68"/>
+      <c r="Z42" s="68"/>
+      <c r="AA42" s="68"/>
+      <c r="AB42" s="69"/>
     </row>
     <row r="43" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="8">
@@ -18110,15 +18119,15 @@
       <c r="Q43" s="15"/>
       <c r="R43" s="15"/>
       <c r="S43" s="15"/>
-      <c r="T43" s="55"/>
-      <c r="U43" s="56"/>
-      <c r="V43" s="56"/>
-      <c r="W43" s="56"/>
-      <c r="X43" s="56"/>
-      <c r="Y43" s="56"/>
-      <c r="Z43" s="56"/>
-      <c r="AA43" s="56"/>
-      <c r="AB43" s="57"/>
+      <c r="T43" s="67"/>
+      <c r="U43" s="68"/>
+      <c r="V43" s="68"/>
+      <c r="W43" s="68"/>
+      <c r="X43" s="68"/>
+      <c r="Y43" s="68"/>
+      <c r="Z43" s="68"/>
+      <c r="AA43" s="68"/>
+      <c r="AB43" s="69"/>
     </row>
     <row r="44" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="8">
@@ -18164,15 +18173,15 @@
       <c r="Q44" s="15"/>
       <c r="R44" s="15"/>
       <c r="S44" s="15"/>
-      <c r="T44" s="55"/>
-      <c r="U44" s="56"/>
-      <c r="V44" s="56"/>
-      <c r="W44" s="56"/>
-      <c r="X44" s="56"/>
-      <c r="Y44" s="56"/>
-      <c r="Z44" s="56"/>
-      <c r="AA44" s="56"/>
-      <c r="AB44" s="57"/>
+      <c r="T44" s="67"/>
+      <c r="U44" s="68"/>
+      <c r="V44" s="68"/>
+      <c r="W44" s="68"/>
+      <c r="X44" s="68"/>
+      <c r="Y44" s="68"/>
+      <c r="Z44" s="68"/>
+      <c r="AA44" s="68"/>
+      <c r="AB44" s="69"/>
     </row>
     <row r="45" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="8">
@@ -18218,15 +18227,15 @@
       <c r="Q45" s="15"/>
       <c r="R45" s="15"/>
       <c r="S45" s="15"/>
-      <c r="T45" s="55"/>
-      <c r="U45" s="56"/>
-      <c r="V45" s="56"/>
-      <c r="W45" s="56"/>
-      <c r="X45" s="56"/>
-      <c r="Y45" s="56"/>
-      <c r="Z45" s="56"/>
-      <c r="AA45" s="56"/>
-      <c r="AB45" s="57"/>
+      <c r="T45" s="67"/>
+      <c r="U45" s="68"/>
+      <c r="V45" s="68"/>
+      <c r="W45" s="68"/>
+      <c r="X45" s="68"/>
+      <c r="Y45" s="68"/>
+      <c r="Z45" s="68"/>
+      <c r="AA45" s="68"/>
+      <c r="AB45" s="69"/>
     </row>
     <row r="46" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="8">
@@ -18272,15 +18281,15 @@
       <c r="Q46" s="15"/>
       <c r="R46" s="15"/>
       <c r="S46" s="15"/>
-      <c r="T46" s="55"/>
-      <c r="U46" s="56"/>
-      <c r="V46" s="56"/>
-      <c r="W46" s="56"/>
-      <c r="X46" s="56"/>
-      <c r="Y46" s="56"/>
-      <c r="Z46" s="56"/>
-      <c r="AA46" s="56"/>
-      <c r="AB46" s="57"/>
+      <c r="T46" s="67"/>
+      <c r="U46" s="68"/>
+      <c r="V46" s="68"/>
+      <c r="W46" s="68"/>
+      <c r="X46" s="68"/>
+      <c r="Y46" s="68"/>
+      <c r="Z46" s="68"/>
+      <c r="AA46" s="68"/>
+      <c r="AB46" s="69"/>
     </row>
     <row r="47" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="8">
@@ -18326,15 +18335,15 @@
       <c r="Q47" s="15"/>
       <c r="R47" s="15"/>
       <c r="S47" s="15"/>
-      <c r="T47" s="55"/>
-      <c r="U47" s="56"/>
-      <c r="V47" s="56"/>
-      <c r="W47" s="56"/>
-      <c r="X47" s="56"/>
-      <c r="Y47" s="56"/>
-      <c r="Z47" s="56"/>
-      <c r="AA47" s="56"/>
-      <c r="AB47" s="57"/>
+      <c r="T47" s="67"/>
+      <c r="U47" s="68"/>
+      <c r="V47" s="68"/>
+      <c r="W47" s="68"/>
+      <c r="X47" s="68"/>
+      <c r="Y47" s="68"/>
+      <c r="Z47" s="68"/>
+      <c r="AA47" s="68"/>
+      <c r="AB47" s="69"/>
     </row>
     <row r="48" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="8">
@@ -18380,15 +18389,15 @@
       <c r="Q48" s="15"/>
       <c r="R48" s="15"/>
       <c r="S48" s="15"/>
-      <c r="T48" s="55"/>
-      <c r="U48" s="56"/>
-      <c r="V48" s="56"/>
-      <c r="W48" s="56"/>
-      <c r="X48" s="56"/>
-      <c r="Y48" s="56"/>
-      <c r="Z48" s="56"/>
-      <c r="AA48" s="56"/>
-      <c r="AB48" s="57"/>
+      <c r="T48" s="67"/>
+      <c r="U48" s="68"/>
+      <c r="V48" s="68"/>
+      <c r="W48" s="68"/>
+      <c r="X48" s="68"/>
+      <c r="Y48" s="68"/>
+      <c r="Z48" s="68"/>
+      <c r="AA48" s="68"/>
+      <c r="AB48" s="69"/>
     </row>
     <row r="49" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="8">
@@ -18434,15 +18443,15 @@
       <c r="Q49" s="15"/>
       <c r="R49" s="15"/>
       <c r="S49" s="15"/>
-      <c r="T49" s="55"/>
-      <c r="U49" s="56"/>
-      <c r="V49" s="56"/>
-      <c r="W49" s="56"/>
-      <c r="X49" s="56"/>
-      <c r="Y49" s="56"/>
-      <c r="Z49" s="56"/>
-      <c r="AA49" s="56"/>
-      <c r="AB49" s="57"/>
+      <c r="T49" s="67"/>
+      <c r="U49" s="68"/>
+      <c r="V49" s="68"/>
+      <c r="W49" s="68"/>
+      <c r="X49" s="68"/>
+      <c r="Y49" s="68"/>
+      <c r="Z49" s="68"/>
+      <c r="AA49" s="68"/>
+      <c r="AB49" s="69"/>
     </row>
     <row r="50" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
@@ -18452,9 +18461,9 @@
       <c r="Q50" s="4"/>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="P51" s="54"/>
-      <c r="Q51" s="54"/>
-      <c r="R51" s="54"/>
+      <c r="P51" s="70"/>
+      <c r="Q51" s="70"/>
+      <c r="R51" s="70"/>
     </row>
     <row r="53" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="35"/>
@@ -18493,10 +18502,10 @@
     </row>
     <row r="58" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="35"/>
-      <c r="B58" s="52" t="s">
+      <c r="B58" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="52"/>
+      <c r="C58" s="77"/>
       <c r="D58" s="36"/>
       <c r="F58" s="37" t="s">
         <v>79</v>
@@ -19186,42 +19195,11 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="B7:AB7"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="T36:AB36"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="B16:AB16"/>
-    <mergeCell ref="B33:AB33"/>
-    <mergeCell ref="T34:AB34"/>
-    <mergeCell ref="T35:AB35"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="T40:AB40"/>
+    <mergeCell ref="T39:AB39"/>
+    <mergeCell ref="T38:AB38"/>
     <mergeCell ref="T37:AB37"/>
     <mergeCell ref="T49:AB49"/>
     <mergeCell ref="T48:AB48"/>
@@ -19232,11 +19210,42 @@
     <mergeCell ref="T43:AB43"/>
     <mergeCell ref="T42:AB42"/>
     <mergeCell ref="T41:AB41"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="T40:AB40"/>
-    <mergeCell ref="T39:AB39"/>
-    <mergeCell ref="T38:AB38"/>
+    <mergeCell ref="T36:AB36"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="B16:AB16"/>
+    <mergeCell ref="B33:AB33"/>
+    <mergeCell ref="T34:AB34"/>
+    <mergeCell ref="T35:AB35"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="B7:AB7"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:W9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R14" xr:uid="{00000000-0002-0000-0500-000003000000}">
